--- a/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>BA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,213 +665,225 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16908000</v>
+      </c>
+      <c r="E8" s="3">
         <v>20560000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19980000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21361000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22917000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>28341000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>25146000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>24258000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23382000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24770000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24223000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23051000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21961000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23286000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23898000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16768000</v>
+      </c>
+      <c r="E9" s="3">
         <v>18708000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16930000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>17810000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18645000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>22090000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>21040000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19536000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18824000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19881000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19956000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18702000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18073000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19464000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>19904000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1852000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3050000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3551000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4272000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6251000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4106000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4722000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4558000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4889000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4267000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4349000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3888000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3822000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3994000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,55 +901,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>672000</v>
+      </c>
+      <c r="E12" s="3">
         <v>749000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>778000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>826000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>866000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>852000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>826000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>827000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>764000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>762000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>768000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>813000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>836000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>726000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>857000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -983,22 +999,25 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3">
         <v>2649000</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5610000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>24</v>
@@ -1009,8 +1028,8 @@
       <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1030,8 +1049,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,8 +1099,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1093,102 +1118,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>18261000</v>
+      </c>
+      <c r="E17" s="3">
         <v>22764000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18721000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24741000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20567000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24166000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22919000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21548000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20507000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21792000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21593000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20521000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19755000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21103000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21616000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-1353000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2204000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1259000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3380000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2350000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4175000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2227000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2710000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2875000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2978000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2630000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2530000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2206000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2183000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2282000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1206,243 +1238,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E20" s="3">
         <v>104000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>121000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>107000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>106000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>29000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-15000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>66000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>32000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>40000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>25000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>26000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-685000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1472000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1956000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2727000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2977000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4787000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2762000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3202000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3442000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3587000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3184000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3043000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2700000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2728000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2758000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E22" s="3">
         <v>242000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>203000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>154000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>123000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>158000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>106000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>109000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>102000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>93000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>87000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>93000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>87000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>79000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-1503000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2342000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1177000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3427000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2333000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4046000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2133000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2586000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2839000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2917000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2583000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2462000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2145000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2103000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2203000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-862000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1332000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-485000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>184000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>622000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-230000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>390000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>362000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>868000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>773000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>713000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>566000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>472000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1488,102 +1536,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-641000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1010000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1167000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2942000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2149000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3424000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2363000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2196000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2477000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2049000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1810000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1749000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1579000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1631000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2279000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-628000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1010000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1166000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2942000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2147000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3422000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2361000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2196000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2474000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2047000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1808000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1749000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1577000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1631000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1629,8 +1686,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1658,11 +1718,11 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3">
         <v>1271000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1676,8 +1736,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1723,8 +1786,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1770,102 +1836,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-104000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-121000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-107000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-106000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-29000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-12000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>15000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-66000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-32000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-40000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-25000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-26000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-628000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1166000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2942000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2147000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3422000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2361000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2196000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2474000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3318000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1808000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1749000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1577000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1631000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1911,107 +1986,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-628000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1166000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2942000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2147000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3422000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2361000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2196000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2474000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3318000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1808000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1749000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1577000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1631000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2029,8 +2113,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2048,228 +2133,241 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15039000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9485000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9763000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9167000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6836000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7637000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8034000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8121000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9235000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8813000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8569000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8737000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8190000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8801000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8986000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>488000</v>
+      </c>
+      <c r="E42" s="3">
         <v>545000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1150000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>439000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>893000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>927000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1956000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1649000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>656000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1179000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1463000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1589000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1015000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1228000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12725000</v>
+      </c>
+      <c r="E43" s="3">
         <v>12471000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14808000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13709000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14217000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14364000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13260000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12985000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12868000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11397000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11079000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10052000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9915000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9260000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9889000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>80020000</v>
+      </c>
+      <c r="E44" s="3">
         <v>76622000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>73279000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>68492000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>65369000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>62567000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>62038000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>61250000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>61303000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>33294000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>43031000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>42453000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>43247000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>43199000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>42680000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2739000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3106000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2656000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3304000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2194000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2335000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2398000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2396000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2481000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2417000</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>24</v>
@@ -2283,196 +2381,211 @@
       <c r="Q45" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>111011000</v>
+      </c>
+      <c r="E46" s="3">
         <v>102229000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>101656000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>95111000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>89509000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>87830000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>87686000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>86401000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>86543000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>85194000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>64142000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>62831000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>62367000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>62488000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>62237000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3623000</v>
+        <v>3240000</v>
       </c>
       <c r="E47" s="3">
+        <v>3472000</v>
+      </c>
+      <c r="F47" s="3">
         <v>3438000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3525000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3663000</v>
       </c>
-      <c r="H47" s="3">
-        <v>3894000</v>
-      </c>
       <c r="I47" s="3">
+        <v>3749000</v>
+      </c>
+      <c r="J47" s="3">
         <v>4270000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4315000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4296000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4513000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4665000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5032000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5202000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5446000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5060000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12405000</v>
+      </c>
+      <c r="E48" s="3">
         <v>13684000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13705000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13665000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13602000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12645000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12571000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12605000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12628000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12672000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12712000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12820000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12842000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12807000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12713000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11313000</v>
+      </c>
+      <c r="E49" s="3">
         <v>11398000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11650000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11812000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11465000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11269000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8252000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8044000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8083000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8132000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7867000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7914000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7838000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7864000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7616000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2518,8 +2631,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2565,55 +2681,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2691000</v>
+        <v>5106000</v>
       </c>
       <c r="E52" s="3">
+        <v>2842000</v>
+      </c>
+      <c r="F52" s="3">
         <v>2149000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2148000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1970000</v>
       </c>
-      <c r="H52" s="3">
-        <v>1721000</v>
-      </c>
       <c r="I52" s="3">
+        <v>1866000</v>
+      </c>
+      <c r="J52" s="3">
         <v>1880000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1830000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1999000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1851000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1621000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1439000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1424000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1392000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2659,55 +2781,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>143075000</v>
+      </c>
+      <c r="E54" s="3">
         <v>133625000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>132598000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>126261000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>120209000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>117359000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>114659000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>113195000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113549000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>112362000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>91007000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>90036000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>89673000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>89997000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>88950000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2725,8 +2853,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2744,290 +2873,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14963000</v>
+      </c>
+      <c r="E57" s="3">
         <v>15553000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>15101000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15267000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14693000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12916000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>13663000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12904000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12613000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12202000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12718000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12093000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11964000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11190000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11968000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5173000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7340000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4354000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4357000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3381000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3190000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1389000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1611000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1981000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1335000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>988000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>720000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>367000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>384000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>74366000</v>
+      </c>
+      <c r="E59" s="3">
         <v>74419000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>72391000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>72565000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>65541000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>65484000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>64365000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>63210000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>60938000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>101620000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40703000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>40096000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>37450000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>38560000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>35889000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>94502000</v>
+      </c>
+      <c r="E60" s="3">
         <v>97312000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>91846000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>92189000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>83615000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>81590000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>79417000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>77725000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>75532000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>74648000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>54409000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>52909000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>49781000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>50134000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>48489000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>33754000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19962000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>20298000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14859000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>11363000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10657000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10487000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10507000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10471000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9782000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9780000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10055000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10432000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9568000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9824000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24179000</v>
+      </c>
+      <c r="E62" s="3">
         <v>24651000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24263000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24156000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24999000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24702000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25964000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>26337000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26248000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>26219000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25673000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>29050000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>29305000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29418000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>28487000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3073,8 +3221,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3120,8 +3271,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3167,55 +3321,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>152740000</v>
+      </c>
+      <c r="E66" s="3">
         <v>142242000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>136714000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>131583000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>120084000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>117020000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>115948000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>114636000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>112327000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>110706000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>89921000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>92073000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>89578000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>89180000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>86861000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3233,8 +3393,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3280,8 +3441,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3327,8 +3491,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3374,8 +3541,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3421,55 +3591,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>49854000</v>
+      </c>
+      <c r="E72" s="3">
         <v>50644000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>53986000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>52819000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>58090000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>55941000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>54666000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>52303000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>52095000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>49618000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>44052000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>42222000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>42165000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>40714000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>40641000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3515,8 +3691,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3562,8 +3741,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3609,55 +3791,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9665000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8617000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4116000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5322000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>125000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>339000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1289000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1441000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1222000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1656000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1086000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2037000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>95000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>817000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2089000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3703,107 +3891,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-628000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1166000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2942000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2147000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3422000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2361000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2196000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2474000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3318000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1808000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1749000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1577000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1631000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3821,55 +4018,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>556000</v>
+      </c>
+      <c r="E83" s="3">
         <v>628000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>576000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>546000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>521000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>583000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>523000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>507000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>501000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>582000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>522000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>494000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>471000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>546000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>474000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3915,8 +4116,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3962,8 +4166,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4009,8 +4216,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4056,8 +4266,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4103,55 +4316,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4302000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2220000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2424000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-590000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2788000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2947000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4559000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4680000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3136000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2903000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3396000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4949000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2098000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2832000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4169,55 +4388,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-428000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-447000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-465000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-421000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-501000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-495000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-457000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-376000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-394000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-435000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-399000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-439000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-932000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-599000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-595000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4263,8 +4486,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4310,55 +4536,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-379000</v>
+      </c>
+      <c r="E94" s="3">
         <v>517000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1194000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-86000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-767000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2424000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-902000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1414000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>119000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-457000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-218000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1123000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-260000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4376,55 +4608,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1158000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1157000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-1156000</v>
       </c>
       <c r="F96" s="3">
         <v>-1156000</v>
       </c>
       <c r="G96" s="3">
+        <v>-1156000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1161000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-970000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-979000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-991000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1006000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-842000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-855000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-852000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-868000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-672000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-676000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4470,8 +4706,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4517,8 +4756,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4564,145 +4806,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10280000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1403000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4240000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2919000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2823000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-856000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3689000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4332000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2845000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2241000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3335000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3311000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2463000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1574000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2204000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E101" s="3">
         <v>22000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-25000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-16000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-44000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>21000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>32000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>20000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5552000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-278000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>597000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2240000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-801000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-349000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-33000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1110000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>418000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>212000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-136000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>547000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-605000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-185000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>381000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>BA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,225 +665,237 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11807000</v>
+      </c>
+      <c r="E8" s="3">
         <v>16908000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20560000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19980000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21361000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22917000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>28341000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>25146000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24258000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23382000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24770000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24223000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>23051000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21961000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23286000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>23898000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12978000</v>
+      </c>
+      <c r="E9" s="3">
         <v>16768000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18708000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16930000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>17810000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18645000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22090000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>21040000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19536000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18824000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19881000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19956000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18702000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18073000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>19464000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19904000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-1171000</v>
+      </c>
+      <c r="E10" s="3">
         <v>140000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1852000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3050000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3551000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4272000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6251000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4106000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4722000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4558000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4889000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4267000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4349000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3888000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3822000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3994000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,58 +914,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>625000</v>
+      </c>
+      <c r="E12" s="3">
         <v>672000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>749000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>778000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>826000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>866000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>852000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>826000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>827000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>764000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>762000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>768000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>813000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>836000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>726000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>857000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1002,25 +1018,28 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3">
         <v>2649000</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5610000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>24</v>
@@ -1031,8 +1050,8 @@
       <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1052,8 +1071,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1102,8 +1124,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1119,108 +1144,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>14771000</v>
+      </c>
+      <c r="E17" s="3">
         <v>18261000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22764000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18721000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24741000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20567000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24166000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22919000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21548000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20507000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21792000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21593000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20521000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19755000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21103000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21616000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-2964000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1353000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2204000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1259000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3380000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2350000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4175000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2227000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2710000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2875000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2978000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2630000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2530000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2206000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2183000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2282000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1239,258 +1271,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E20" s="3">
         <v>112000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>104000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>121000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>107000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>106000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>29000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>12000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>66000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>32000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>40000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>25000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>26000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-2323000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-685000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1472000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1956000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2727000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2977000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4787000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2762000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3202000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3442000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3587000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3184000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3043000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2700000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2728000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2758000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>553000</v>
+      </c>
+      <c r="E22" s="3">
         <v>262000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>242000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>203000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>154000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>123000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>158000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>106000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>109000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>102000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>93000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>87000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>93000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>87000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>79000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-3423000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1503000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2342000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1177000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3427000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2333000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4046000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2133000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2586000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2839000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2917000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2583000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2462000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2145000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2103000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2203000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-1028000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-862000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1332000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-485000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>184000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>622000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-230000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>390000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>362000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>868000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>773000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>713000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>566000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>472000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1539,108 +1587,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-2395000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-641000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1010000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1167000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2942000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2149000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3424000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2363000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2196000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2477000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2049000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1810000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1749000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1579000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1631000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2279000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-2376000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-628000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1010000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1166000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2942000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2147000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3422000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2361000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2196000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2474000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2047000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1808000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1749000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1577000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1631000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1689,8 +1746,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1721,11 +1781,11 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>1271000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1739,8 +1799,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1789,8 +1852,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1839,108 +1905,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-112000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-104000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-121000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-107000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-106000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-29000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-12000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-66000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-32000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-40000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-25000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2376000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-628000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1166000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2942000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2147000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3422000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2361000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2196000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2474000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3318000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1808000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1749000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1577000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1631000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1989,113 +2064,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2376000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-628000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1166000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2942000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2147000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3422000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2361000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2196000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2474000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3318000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1808000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1749000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1577000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1631000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2114,8 +2198,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2134,243 +2219,256 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19992000</v>
+      </c>
+      <c r="E41" s="3">
         <v>15039000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9485000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9763000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9167000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6836000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7637000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8034000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8121000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9235000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8813000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8569000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8737000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8190000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8801000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8986000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>12438000</v>
+      </c>
+      <c r="E42" s="3">
         <v>488000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>545000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1150000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>439000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>893000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>927000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1956000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1649000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>656000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1179000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1463000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1589000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1015000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1228000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11478000</v>
+      </c>
+      <c r="E43" s="3">
         <v>12725000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12471000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14808000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13709000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14217000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14364000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13260000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12985000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12868000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11397000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11079000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10052000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9915000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9260000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9889000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>83745000</v>
+      </c>
+      <c r="E44" s="3">
         <v>80020000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>76622000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>73279000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>68492000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>65369000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>62567000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>62038000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>61250000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>61303000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>33294000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>43031000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>42453000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>43247000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>43199000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>42680000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2624000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2739000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3106000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2656000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3304000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2194000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2335000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2398000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2396000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2481000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2417000</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>24</v>
@@ -2384,208 +2482,223 @@
       <c r="R45" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>130277000</v>
+      </c>
+      <c r="E46" s="3">
         <v>111011000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>102229000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>101656000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>95111000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>89509000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>87830000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>87686000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>86401000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>86543000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>85194000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>64142000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>62831000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>62367000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>62488000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>62237000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3120000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3240000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3472000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3438000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3525000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3663000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3749000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4270000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4315000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4296000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4513000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4665000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5032000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5202000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5446000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5060000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12182000</v>
+      </c>
+      <c r="E48" s="3">
         <v>12405000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13684000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13705000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13665000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13602000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12645000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12571000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12605000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12628000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12672000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12712000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12820000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12842000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12807000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12713000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10466000</v>
+      </c>
+      <c r="E49" s="3">
         <v>11313000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11398000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11650000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11812000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11465000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11269000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8252000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8044000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8083000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8132000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7867000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7914000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7838000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7864000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7616000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2634,8 +2747,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2684,58 +2800,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6827000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5106000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2842000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2149000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2148000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1970000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1866000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1880000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1830000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1999000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1851000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1621000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1439000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1424000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1392000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2784,58 +2906,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>162872000</v>
+      </c>
+      <c r="E54" s="3">
         <v>143075000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>133625000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>132598000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>126261000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>120209000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>117359000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>114659000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113195000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113549000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>112362000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>91007000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>90036000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>89673000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>89997000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>88950000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2854,8 +2982,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2874,308 +3003,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13700000</v>
+      </c>
+      <c r="E57" s="3">
         <v>14963000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>15553000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15101000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15267000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14693000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12916000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>13663000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12904000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12613000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12202000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12718000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12093000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11964000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11190000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11968000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2922000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5173000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7340000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4354000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4357000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3381000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3190000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1389000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1611000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1981000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1335000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>988000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>720000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>367000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>384000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>75860000</v>
+      </c>
+      <c r="E59" s="3">
         <v>74366000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>74419000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>72391000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>72565000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>65541000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>65484000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>64365000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>63210000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>60938000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>101620000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>40703000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>40096000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>37450000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>38560000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>35889000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>92482000</v>
+      </c>
+      <c r="E60" s="3">
         <v>94502000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>97312000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>91846000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>92189000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>83615000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>81590000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>79417000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>77725000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>75532000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>74648000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>54409000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>52909000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>49781000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>50134000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>48489000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>58457000</v>
+      </c>
+      <c r="E61" s="3">
         <v>33754000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19962000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>20298000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14859000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11363000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10657000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10487000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10507000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10471000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9782000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9780000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10055000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10432000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9568000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9824000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23315000</v>
+      </c>
+      <c r="E62" s="3">
         <v>24179000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24651000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24263000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24156000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24999000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24702000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25964000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26337000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>26248000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>26219000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25673000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>29050000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29305000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29418000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>28487000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3224,8 +3372,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3274,8 +3425,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3324,58 +3478,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>174539000</v>
+      </c>
+      <c r="E66" s="3">
         <v>152740000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>142242000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>136714000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>131583000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>120084000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>117020000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>115948000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>114636000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>112327000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>110706000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>89921000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>92073000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>89578000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>89180000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>86861000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3394,8 +3554,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3444,8 +3605,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3494,8 +3658,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3544,8 +3711,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3594,58 +3764,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>47478000</v>
+      </c>
+      <c r="E72" s="3">
         <v>49854000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>50644000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>53986000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>52819000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>58090000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>55941000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>54666000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>52303000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>52095000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>49618000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>44052000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>42222000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>42165000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>40714000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>40641000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3694,8 +3870,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3744,8 +3923,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3794,58 +3976,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11667000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-9665000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8617000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4116000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5322000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>125000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>339000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1289000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1441000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1222000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1656000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1086000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2037000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>95000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>817000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2089000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3894,113 +4082,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2376000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-628000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1166000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2942000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2147000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3422000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2361000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2196000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2474000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3318000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1808000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1749000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1577000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1631000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4019,58 +4216,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>547000</v>
+      </c>
+      <c r="E83" s="3">
         <v>556000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>628000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>576000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>546000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>521000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>583000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>523000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>507000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>501000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>582000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>522000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>494000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>471000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>546000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>474000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4119,8 +4320,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4169,8 +4373,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4219,8 +4426,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4269,8 +4479,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4319,58 +4532,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5280000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4302000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2220000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2424000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-590000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2788000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2947000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4559000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4680000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3136000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2903000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3396000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4949000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2098000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2832000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4389,58 +4608,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-348000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-428000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-447000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-465000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-421000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-501000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-495000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-457000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-376000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-394000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-435000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-399000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-439000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-932000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-599000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-595000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4489,8 +4712,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4539,58 +4765,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12307000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-379000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>517000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1194000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-86000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-767000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2424000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-902000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1414000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>119000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-457000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-218000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1123000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-260000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4609,58 +4841,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1158000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1157000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-1156000</v>
       </c>
       <c r="G96" s="3">
         <v>-1156000</v>
       </c>
       <c r="H96" s="3">
+        <v>-1156000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1161000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-970000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-979000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-991000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1006000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-842000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-855000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-852000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-868000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-672000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-676000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4709,8 +4945,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4759,8 +4998,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4809,154 +5051,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>22462000</v>
+      </c>
+      <c r="E100" s="3">
         <v>10280000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1403000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4240000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2919000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2823000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-856000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3689000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4332000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2845000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2241000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3335000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3311000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2463000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1574000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2204000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-47000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>22000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-25000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-16000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-44000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>21000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>32000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>20000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-27000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4911000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5552000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-278000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>597000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2240000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-801000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-349000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-33000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1110000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>418000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>212000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-136000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>547000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-605000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-185000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>381000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>BA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,237 +665,249 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14139000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11807000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16908000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20560000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19980000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>21361000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22917000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>28341000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25146000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24258000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23382000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24770000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>24223000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23051000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21961000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>23286000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>23898000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13105000</v>
+      </c>
+      <c r="E9" s="3">
         <v>12978000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16768000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18708000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16930000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17810000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>18645000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22090000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21040000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19536000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18824000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19881000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19956000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18702000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>18073000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19464000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>19904000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1034000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-1171000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>140000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1852000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3050000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3551000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4272000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6251000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4106000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4722000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4558000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4889000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4267000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4349000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3888000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3822000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3994000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,61 +927,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>574000</v>
+      </c>
+      <c r="E12" s="3">
         <v>625000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>672000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>749000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>778000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>826000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>866000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>852000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>826000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>827000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>764000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>762000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>768000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>813000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>836000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>726000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>857000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1021,8 +1037,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,17 +1051,17 @@
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3">
         <v>2649000</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5610000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>24</v>
@@ -1053,8 +1072,8 @@
       <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1074,8 +1093,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1149,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1145,114 +1170,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>14540000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14771000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18261000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22764000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18721000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24741000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20567000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>24166000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22919000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21548000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20507000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21792000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21593000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20521000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19755000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21103000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21616000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-401000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2964000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1353000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2204000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1259000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3380000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2350000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4175000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2227000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2710000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2875000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2978000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2630000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2530000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2206000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2183000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2282000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1272,273 +1304,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E20" s="3">
         <v>94000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>112000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>104000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>121000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>107000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>106000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>29000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>66000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>32000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>40000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>25000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>26000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>283000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2323000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-685000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1472000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1956000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2727000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2977000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4787000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2762000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3202000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3442000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3587000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3184000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3043000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2700000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2728000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2758000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>643000</v>
+      </c>
+      <c r="E22" s="3">
         <v>553000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>262000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>242000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>203000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>154000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>123000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>158000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>106000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>109000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>102000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>93000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>87000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>93000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>87000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>79000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-925000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3423000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1503000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2342000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1177000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3427000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2333000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4046000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2133000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2586000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2839000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2917000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2583000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2462000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2145000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2103000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2203000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-459000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1028000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-862000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1332000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-485000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>184000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>622000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-230000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>390000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>362000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>868000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>773000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>713000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>566000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>472000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1590,114 +1638,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-466000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2395000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-641000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1010000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1167000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2942000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2149000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3424000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2363000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2196000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2477000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2049000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1810000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1749000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1579000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1631000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2279000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-449000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2376000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-628000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1010000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1166000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2942000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2147000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3422000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2361000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2196000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2474000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2047000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1808000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1749000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1577000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1631000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1749,8 +1806,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1784,11 +1844,11 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>1271000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1802,8 +1862,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1855,8 +1918,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1908,114 +1974,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-94000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-112000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-104000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-121000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-107000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-106000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-29000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-66000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-32000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-40000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-26000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-449000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2376000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-628000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1166000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2942000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2147000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3422000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2361000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2196000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2474000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3318000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1808000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1749000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1577000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1631000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2067,119 +2142,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-449000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2376000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-628000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1166000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2942000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2147000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3422000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2361000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2196000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2474000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3318000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1808000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1749000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1577000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1631000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2199,8 +2283,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2220,258 +2305,271 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10564000</v>
+      </c>
+      <c r="E41" s="3">
         <v>19992000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15039000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9485000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9763000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9167000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6836000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7637000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8034000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8121000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9235000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8813000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8569000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8737000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8190000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8801000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8986000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16552000</v>
+      </c>
+      <c r="E42" s="3">
         <v>12438000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>488000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>545000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1150000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>439000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>893000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>927000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1956000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1649000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>656000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1179000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1463000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1589000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1015000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1228000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11722000</v>
+      </c>
+      <c r="E43" s="3">
         <v>11478000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12725000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12471000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14808000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13709000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14217000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14364000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13260000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12985000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12868000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11397000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11079000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10052000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9915000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9260000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9889000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>86961000</v>
+      </c>
+      <c r="E44" s="3">
         <v>83745000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>80020000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>76622000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>73279000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>68492000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>65369000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>62567000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>62038000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>61250000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>61303000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>33294000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>43031000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>42453000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>43247000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>43199000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>42680000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5213000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2624000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2739000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3106000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2656000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3304000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2194000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2335000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2398000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2396000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2481000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2417000</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>24</v>
@@ -2485,220 +2583,235 @@
       <c r="S45" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>131012000</v>
+      </c>
+      <c r="E46" s="3">
         <v>130277000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>111011000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>102229000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>101656000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>95111000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>89509000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>87830000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>87686000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>86401000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>86543000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>85194000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>64142000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>62831000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>62367000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>62488000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>62237000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3062000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3120000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3240000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3472000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3438000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3525000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3663000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3749000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4270000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4315000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4296000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4513000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4665000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5032000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5202000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5446000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5060000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11969000</v>
+      </c>
+      <c r="E48" s="3">
         <v>12182000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12405000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13684000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13705000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13665000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13602000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12645000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12571000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12605000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12628000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12672000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12712000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12820000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12842000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12807000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12713000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10341000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10466000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11313000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11398000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11650000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11812000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11465000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11269000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8252000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8044000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8083000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8132000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7867000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7914000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7838000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7864000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7616000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2750,8 +2863,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2803,61 +2919,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4877000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6827000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5106000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2842000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2149000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2148000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1970000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1866000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1880000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1830000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1999000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1851000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1621000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1439000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1424000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1392000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2909,61 +3031,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>161261000</v>
+      </c>
+      <c r="E54" s="3">
         <v>162872000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>143075000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>133625000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>132598000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>126261000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>120209000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>117359000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>114659000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113195000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>113549000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>112362000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>91007000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>90036000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>89673000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>89997000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>88950000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2983,8 +3111,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3004,326 +3133,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14479000</v>
+      </c>
+      <c r="E57" s="3">
         <v>13700000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14963000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15553000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15101000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15267000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14693000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12916000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13663000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12904000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12613000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12202000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12718000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12093000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11964000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11190000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11968000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3634000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2922000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5173000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7340000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4354000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4357000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3381000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3190000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1389000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1611000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1981000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1335000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>988000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>720000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>367000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>384000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>74194000</v>
+      </c>
+      <c r="E59" s="3">
         <v>75860000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>74366000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>74419000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>72391000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>72565000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>65541000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>65484000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>64365000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>63210000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>60938000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>101620000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>40703000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>40096000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>37450000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>38560000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>35889000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>92307000</v>
+      </c>
+      <c r="E60" s="3">
         <v>92482000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>94502000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>97312000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>91846000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>92189000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>83615000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>81590000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>79417000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>77725000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>75532000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>74648000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>54409000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>52909000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>49781000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>50134000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>48489000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>57325000</v>
+      </c>
+      <c r="E61" s="3">
         <v>58457000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>33754000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19962000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>20298000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14859000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11363000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10657000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10487000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10507000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10471000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9782000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9780000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10055000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10432000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9568000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9824000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23182000</v>
+      </c>
+      <c r="E62" s="3">
         <v>23315000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24179000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24651000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24263000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24156000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24999000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24702000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25964000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>26337000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>26248000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>26219000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25673000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29050000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29305000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>29418000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>28487000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3375,8 +3523,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3428,8 +3579,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3481,61 +3635,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>173082000</v>
+      </c>
+      <c r="E66" s="3">
         <v>174539000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>152740000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>142242000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>136714000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>131583000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>120084000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>117020000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>115948000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>114636000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>112327000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>110706000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>89921000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>92073000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>89578000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>89180000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>86861000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3555,8 +3715,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3608,8 +3769,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3661,8 +3825,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3714,8 +3881,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3767,61 +3937,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>47029000</v>
+      </c>
+      <c r="E72" s="3">
         <v>47478000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>49854000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>50644000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>53986000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>52819000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>58090000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>55941000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>54666000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>52303000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>52095000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>49618000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>44052000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>42222000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>42165000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>40714000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>40641000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3873,8 +4049,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3926,8 +4105,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3979,61 +4161,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11821000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-11667000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-9665000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-8617000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4116000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5322000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>125000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>339000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1289000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1441000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1222000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1656000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1086000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2037000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>95000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>817000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2089000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4085,119 +4273,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-449000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2376000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-628000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1166000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2942000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2147000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3422000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2361000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2196000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2474000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3318000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1808000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1749000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1577000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1631000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4217,61 +4414,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E83" s="3">
         <v>547000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>556000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>628000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>576000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>546000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>521000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>583000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>523000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>507000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>501000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>582000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>522000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>494000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>471000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>546000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>474000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4323,8 +4524,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4376,8 +4580,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4429,8 +4636,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4482,8 +4692,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4535,61 +4748,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4819000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5280000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4302000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2220000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2424000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-590000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2788000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2947000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4559000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4680000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3136000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2903000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3396000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4949000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2098000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2832000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4609,61 +4828,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-262000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-348000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-428000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-447000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-465000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-421000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-501000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-495000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-457000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-376000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-394000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-435000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-399000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-439000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-932000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-599000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-595000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4715,8 +4938,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4768,61 +4994,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4137000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12307000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-379000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>517000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1194000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-86000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-767000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2424000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-902000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1414000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>119000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-457000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-218000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1123000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-260000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4842,8 +5074,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4851,52 +5084,55 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1158000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1157000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-1156000</v>
       </c>
       <c r="H96" s="3">
         <v>-1156000</v>
       </c>
       <c r="I96" s="3">
+        <v>-1156000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1161000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-970000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-979000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-991000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1006000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-842000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-855000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-852000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-868000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-672000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-676000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4948,8 +5184,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5001,8 +5240,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5054,163 +5296,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-468000</v>
+      </c>
+      <c r="E100" s="3">
         <v>22462000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10280000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1403000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4240000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2919000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2823000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-856000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3689000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4332000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2845000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2241000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3335000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3311000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2463000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1574000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2204000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E101" s="3">
         <v>36000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-47000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>22000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-25000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-16000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-44000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>21000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>32000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>20000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-27000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9387000</v>
+      </c>
+      <c r="E102" s="3">
         <v>4911000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5552000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-278000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>597000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2240000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-801000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-349000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-33000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1110000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>418000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>212000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-136000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>547000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-605000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-185000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>381000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>BA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,249 +665,261 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15802000</v>
+      </c>
+      <c r="E8" s="3">
         <v>14139000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11807000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16908000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20560000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19980000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>21361000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22917000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28341000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>25146000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24258000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23382000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>24770000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>24223000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23051000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>21961000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>23286000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>23898000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>20992000</v>
+      </c>
+      <c r="E9" s="3">
         <v>13105000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12978000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16768000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18708000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16930000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17810000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18645000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22090000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>21040000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19536000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18824000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19881000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19956000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>18702000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>18073000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>19464000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>19904000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-5190000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1034000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-1171000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>140000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1852000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3050000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3551000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4272000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6251000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4106000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4722000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4558000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4889000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4267000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4349000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3888000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3822000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3994000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -928,64 +940,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E12" s="3">
         <v>574000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>625000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>672000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>749000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>778000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>826000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>866000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>852000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>826000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>827000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>764000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>762000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>768000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>813000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>836000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>726000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>857000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1040,13 +1056,16 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
+      <c r="D14" s="3">
+        <v>498000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>24</v>
@@ -1054,17 +1073,17 @@
       <c r="F14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3">
         <v>2649000</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5610000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>24</v>
@@ -1075,8 +1094,8 @@
       <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1096,8 +1115,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1152,8 +1174,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1171,120 +1196,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>23851000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14540000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14771000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18261000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22764000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18721000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24741000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20567000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24166000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22919000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21548000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20507000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21792000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21593000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20521000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19755000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21103000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21616000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-8049000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-401000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2964000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1353000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2204000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1259000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3380000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2350000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4175000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2227000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2710000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2875000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2978000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2630000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2530000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2206000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2183000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2282000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1305,288 +1337,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E20" s="3">
         <v>119000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>94000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>112000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>104000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>121000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>107000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>106000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>29000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>66000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>32000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>40000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>25000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>26000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-7349000</v>
+      </c>
+      <c r="E21" s="3">
         <v>283000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2323000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-685000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1472000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1956000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2727000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2977000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4787000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2762000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3202000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3442000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3587000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3184000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3043000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2700000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2728000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2758000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>698000</v>
+      </c>
+      <c r="E22" s="3">
         <v>643000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>553000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>262000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>242000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>203000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>154000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>123000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>158000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>106000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>109000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>102000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>93000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>87000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>93000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>87000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>79000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-8625000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-925000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3423000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1503000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2342000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1177000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3427000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2333000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4046000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2133000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2586000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2839000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2917000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2583000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2462000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2145000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2103000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2203000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-459000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1028000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-862000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1332000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-485000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>184000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>622000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-230000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>390000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>362000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>868000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>773000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>713000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>566000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>472000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,120 +1689,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-8439000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-466000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2395000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-641000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1010000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1167000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2942000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2149000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3424000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2363000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2196000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2477000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2049000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1810000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1749000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1579000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1631000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2279000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-8420000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-449000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2376000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-628000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1010000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1166000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2942000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2147000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3422000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2361000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2196000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2474000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2047000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1808000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1749000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1577000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1631000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1809,8 +1866,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1847,11 +1907,11 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>1271000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1865,8 +1925,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1921,8 +1984,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1977,120 +2043,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-119000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-94000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-112000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-104000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-121000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-107000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-106000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-29000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-66000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-32000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-25000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-26000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8420000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-449000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2376000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-628000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1166000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2942000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2147000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3422000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2361000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2196000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2474000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3318000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1808000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1749000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1577000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1631000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2145,125 +2220,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8420000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-449000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2376000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-628000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1166000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2942000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2147000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3422000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2361000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2196000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2474000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3318000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1808000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1749000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1577000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1631000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2284,8 +2368,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2306,273 +2391,286 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7752000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10564000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19992000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15039000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9485000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9763000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9167000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6836000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7637000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8034000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8121000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9235000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8813000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8569000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8737000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8190000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8801000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8986000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>17838000</v>
+      </c>
+      <c r="E42" s="3">
         <v>16552000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>12438000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>488000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>545000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1150000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>439000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>893000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>927000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1956000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1649000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>656000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1179000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1463000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1589000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1015000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1228000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10051000</v>
+      </c>
+      <c r="E43" s="3">
         <v>11722000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11478000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12725000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12471000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14808000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13709000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14217000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14364000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13260000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12985000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12868000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11397000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11079000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10052000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9915000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9260000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9889000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>81715000</v>
+      </c>
+      <c r="E44" s="3">
         <v>86961000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>83745000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>80020000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>76622000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>73279000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>68492000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>65369000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>62567000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>62038000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>61250000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>61303000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>33294000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>43031000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>42453000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>43247000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>43199000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>42680000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4286000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5213000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2624000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2739000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3106000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2656000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3304000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2194000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2335000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2398000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2396000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2481000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2417000</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>24</v>
@@ -2586,232 +2684,247 @@
       <c r="T45" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>121642000</v>
+      </c>
+      <c r="E46" s="3">
         <v>131012000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>130277000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>111011000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>102229000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>101656000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>95111000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>89509000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>87830000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>87686000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>86401000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>86543000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>85194000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>64142000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>62831000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>62367000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>62488000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>62237000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2952000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3062000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3120000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3240000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3472000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3438000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3525000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3663000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3749000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4270000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4315000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4296000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4513000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4665000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5032000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5202000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5446000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5060000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13072000</v>
+      </c>
+      <c r="E48" s="3">
         <v>11969000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12182000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12405000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13684000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13705000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13665000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13602000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12645000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12571000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12605000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12628000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12672000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12712000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12820000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12842000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12807000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12713000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10195000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10341000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10466000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11313000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11398000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11650000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11812000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11465000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11269000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8252000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8044000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8083000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8132000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7867000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7914000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7838000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7864000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7616000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2866,8 +2979,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2922,64 +3038,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4275000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4877000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6827000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5106000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2842000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2149000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2148000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1970000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1866000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1880000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1830000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1999000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1851000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1621000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1439000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1424000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1392000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3034,64 +3156,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>152136000</v>
+      </c>
+      <c r="E54" s="3">
         <v>161261000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>162872000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>143075000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>133625000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>132598000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>126261000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>120209000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>117359000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>114659000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>113195000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>113549000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>112362000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>91007000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>90036000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>89673000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>89997000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>88950000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3112,8 +3240,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3134,344 +3263,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12928000</v>
+      </c>
+      <c r="E57" s="3">
         <v>14479000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13700000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14963000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15553000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15101000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15267000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14693000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12916000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13663000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12904000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12613000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12202000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12718000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12093000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11964000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11190000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11968000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1693000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3634000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2922000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5173000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7340000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4354000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4357000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3381000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3190000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1389000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1611000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1981000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1335000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>988000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>720000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>367000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>384000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>72659000</v>
+      </c>
+      <c r="E59" s="3">
         <v>74194000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>75860000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>74366000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>74419000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>72391000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>72565000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>65541000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>65484000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>64365000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>63210000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>60938000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>101620000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>40703000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>40096000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>37450000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>38560000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>35889000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>87280000</v>
+      </c>
+      <c r="E60" s="3">
         <v>92307000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>92482000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>94502000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>97312000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>91846000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>92189000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>83615000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>81590000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>79417000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>77725000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>75532000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>74648000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>54409000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>52909000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>49781000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>50134000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>48489000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>61890000</v>
+      </c>
+      <c r="E61" s="3">
         <v>57325000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>58457000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>33754000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19962000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>20298000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14859000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11363000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10657000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10487000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10507000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10471000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9782000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9780000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10055000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10432000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9568000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9824000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21041000</v>
+      </c>
+      <c r="E62" s="3">
         <v>23182000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23315000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24179000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24651000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24263000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24156000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24999000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24702000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25964000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>26337000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>26248000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>26219000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25673000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29050000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>29305000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>29418000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>28487000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3526,8 +3674,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3582,8 +3733,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3638,64 +3792,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>170452000</v>
+      </c>
+      <c r="E66" s="3">
         <v>173082000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>174539000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>152740000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>142242000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>136714000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>131583000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>120084000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>117020000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>115948000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>114636000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>112327000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>110706000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>89921000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>92073000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>89578000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>89180000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>86861000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3716,8 +3876,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3772,8 +3933,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3828,8 +3992,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3884,8 +4051,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3940,64 +4110,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>38610000</v>
+      </c>
+      <c r="E72" s="3">
         <v>47029000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>47478000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>49854000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>50644000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>53986000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>52819000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>58090000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>55941000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>54666000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>52303000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>52095000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>49618000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>44052000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>42222000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>42165000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>40714000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>40641000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4052,8 +4228,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4108,8 +4287,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4164,64 +4346,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-18316000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-11821000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11667000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-9665000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-8617000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4116000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5322000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>125000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>339000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1289000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1441000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1222000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1656000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1086000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2037000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>95000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>817000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2089000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4276,125 +4464,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8420000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-449000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2376000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-628000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1166000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2942000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2147000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3422000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2361000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2196000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2474000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3318000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1808000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1749000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1577000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1631000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4415,64 +4612,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>578000</v>
+      </c>
+      <c r="E83" s="3">
         <v>565000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>547000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>556000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>628000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>576000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>546000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>521000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>583000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>523000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>507000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>501000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>582000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>522000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>494000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>471000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>546000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>474000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4527,8 +4728,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4583,8 +4787,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4639,8 +4846,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4695,8 +4905,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4751,64 +4964,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4009000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4819000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5280000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4302000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2220000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2424000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-590000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2788000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2947000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4559000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4680000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3136000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2903000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3396000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4949000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2098000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2832000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4829,64 +5048,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-265000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-262000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-348000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-428000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-447000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-465000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-421000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-501000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-495000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-457000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-376000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-394000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-435000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-399000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-439000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-932000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-599000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-595000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4941,8 +5164,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4997,64 +5223,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1543000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4137000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12307000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-379000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>517000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1194000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-86000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-767000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2424000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-902000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1414000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>119000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-457000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-218000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1123000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-260000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5075,8 +5307,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5087,52 +5320,55 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1158000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1157000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-1156000</v>
       </c>
       <c r="I96" s="3">
         <v>-1156000</v>
       </c>
       <c r="J96" s="3">
+        <v>-1156000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1161000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-970000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-979000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-991000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1006000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-842000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-855000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-852000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-868000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-672000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-676000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5187,8 +5423,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5243,8 +5482,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5299,172 +5541,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2681000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-468000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>22462000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10280000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1403000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4240000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2919000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2823000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-856000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3689000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4332000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2845000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2241000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3335000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3311000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2463000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1574000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2204000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E101" s="3">
         <v>37000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>36000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-47000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>22000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-25000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-44000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>21000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>32000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>20000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-27000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2812000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9387000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4911000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5552000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-278000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>597000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2240000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-801000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-349000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-33000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1110000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>418000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>212000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-136000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>547000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-605000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-185000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>381000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>BA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,273 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15217000</v>
+      </c>
+      <c r="E8" s="3">
         <v>15802000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14139000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11807000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16908000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20560000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19980000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>21361000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22917000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>28341000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25146000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24258000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>23382000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>24770000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>24223000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>23051000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>21961000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>23286000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>23898000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13808000</v>
+      </c>
+      <c r="E9" s="3">
         <v>20992000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13105000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12978000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16768000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18708000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16930000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>17810000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18645000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22090000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>21040000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19536000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18824000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19881000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>19956000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>18702000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>18073000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>19464000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>19904000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1409000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-5190000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1034000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-1171000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>140000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1852000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3050000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3551000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4272000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6251000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4106000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4722000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4558000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4889000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4267000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4349000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3888000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3822000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3994000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -941,67 +953,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>499000</v>
+      </c>
+      <c r="E12" s="3">
         <v>605000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>574000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>625000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>672000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>749000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>778000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>826000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>866000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>852000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>826000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>827000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>764000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>762000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>768000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>813000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>836000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>726000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>857000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,16 +1075,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3">
         <v>498000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>24</v>
@@ -1076,17 +1095,17 @@
       <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3">
         <v>2649000</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5610000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>24</v>
@@ -1097,8 +1116,8 @@
       <c r="N14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1118,8 +1137,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1177,8 +1199,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1197,126 +1222,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>15300000</v>
+      </c>
+      <c r="E17" s="3">
         <v>23851000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14540000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14771000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18261000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22764000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18721000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>24741000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20567000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24166000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22919000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21548000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20507000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21792000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21593000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20521000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19755000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21103000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>21616000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8049000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-401000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2964000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1353000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2204000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1259000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3380000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2350000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4175000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2227000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2710000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2875000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2978000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2630000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2530000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2206000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2183000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2282000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1338,303 +1370,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E20" s="3">
         <v>122000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>119000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>94000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>112000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>104000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>121000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>107000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>106000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>29000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-15000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>66000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>32000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>40000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>25000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>26000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>643000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7349000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>283000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2323000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-685000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1472000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1956000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2727000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2977000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4787000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2762000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3202000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3442000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3587000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3184000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3043000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2700000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2728000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2758000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>679000</v>
+      </c>
+      <c r="E22" s="3">
         <v>698000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>643000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>553000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>262000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>242000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>203000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>154000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>123000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>158000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>106000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>109000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>102000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>93000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>87000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>93000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>87000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>79000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-572000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8625000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-925000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3423000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1503000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2342000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1177000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3427000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2333000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4046000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2133000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2586000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2839000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2917000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2583000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2462000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2145000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2103000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2203000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-186000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-459000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1028000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-862000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1332000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-485000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>184000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>622000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-230000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>390000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>362000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>868000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>773000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>713000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>566000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>472000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1692,126 +1740,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-561000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8439000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-466000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2395000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-641000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1010000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1167000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2942000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2149000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3424000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2363000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2196000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2477000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2049000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1810000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1749000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1579000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1631000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2279000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-537000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8420000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-449000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2376000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-628000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1010000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1166000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2942000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2147000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3422000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2361000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2196000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2474000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2047000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1808000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1749000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1577000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1631000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1869,31 +1926,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -1910,11 +1970,11 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1271000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1928,8 +1988,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1987,8 +2050,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2046,126 +2112,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-122000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-119000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-94000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-112000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-104000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-121000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-107000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-106000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-29000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>15000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-66000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-40000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-25000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-26000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-537000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8420000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-449000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2376000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-628000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1166000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2942000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2147000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3422000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2361000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2196000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2474000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3318000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1808000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1749000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1577000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1631000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2223,131 +2298,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-537000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8420000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-449000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2376000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-628000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1166000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2942000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2147000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3422000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2361000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2196000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2474000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3318000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1808000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1749000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1577000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1631000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2369,8 +2453,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2392,288 +2477,301 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7059000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7752000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10564000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19992000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15039000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9485000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9763000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9167000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6836000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7637000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8034000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8121000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9235000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8813000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8569000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8737000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8190000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8801000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8986000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14861000</v>
+      </c>
+      <c r="E42" s="3">
         <v>17838000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>16552000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>12438000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>488000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>545000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1150000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>439000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>893000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>927000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1956000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1649000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>656000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1179000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1463000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1589000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1015000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1228000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11234000</v>
+      </c>
+      <c r="E43" s="3">
         <v>10051000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11722000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11478000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12725000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12471000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14808000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13709000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14217000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14364000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13260000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12985000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12868000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11397000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>11079000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10052000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9915000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9260000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9889000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>82668000</v>
+      </c>
+      <c r="E44" s="3">
         <v>81715000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>86961000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>83745000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>80020000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>76622000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>73279000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>68492000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>65369000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>62567000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>62038000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>61250000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>61303000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>33294000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>43031000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>42453000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>43247000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>43199000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>42680000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4123000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4286000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5213000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2624000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2739000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3106000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2656000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3304000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2194000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2335000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2398000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2396000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2481000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2417000</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>24</v>
@@ -2687,244 +2785,259 @@
       <c r="U45" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>119945000</v>
+      </c>
+      <c r="E46" s="3">
         <v>121642000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>131012000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>130277000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>111011000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>102229000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>101656000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>95111000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>89509000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>87830000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>87686000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>86401000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>86543000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>85194000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>64142000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>62831000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>62367000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>62488000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>62237000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2875000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2952000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3062000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3120000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3240000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3472000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3438000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3525000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3663000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3749000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4270000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4315000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4296000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4513000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4665000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5032000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5202000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5446000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5060000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11643000</v>
+      </c>
+      <c r="E48" s="3">
         <v>13072000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11969000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12182000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12405000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13684000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13705000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13665000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13602000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12645000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12571000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12605000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12628000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12672000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12712000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12820000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12842000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12807000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12713000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9930000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10195000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10341000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10466000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11313000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11398000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11650000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11812000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11465000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11269000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8252000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8044000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8083000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8132000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7867000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7914000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7838000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7864000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7616000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2982,8 +3095,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3041,67 +3157,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5642000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4275000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4877000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6827000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5106000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2842000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2149000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2148000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1970000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1866000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1880000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1830000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1999000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1851000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1621000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1439000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1424000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1392000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3159,67 +3281,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>150035000</v>
+      </c>
+      <c r="E54" s="3">
         <v>152136000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>161261000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>162872000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>143075000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>133625000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>132598000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>126261000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>120209000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>117359000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>114659000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>113195000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>113549000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>112362000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>91007000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>90036000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>89673000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>89997000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>88950000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3241,8 +3369,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3264,362 +3393,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12410000</v>
+      </c>
+      <c r="E57" s="3">
         <v>12928000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14479000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13700000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14963000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15553000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15101000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15267000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14693000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12916000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13663000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12904000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12613000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12202000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12718000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12093000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11964000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11190000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11968000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6021000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1693000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3634000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2922000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5173000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7340000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4354000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4357000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3381000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3190000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1389000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1611000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1981000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1335000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>988000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>720000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>367000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>384000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>71461000</v>
+      </c>
+      <c r="E59" s="3">
         <v>72659000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>74194000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>75860000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>74366000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>74419000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>72391000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>72565000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>65541000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>65484000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>64365000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>63210000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>60938000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>101620000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>40703000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>40096000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>37450000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>38560000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>35889000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>89892000</v>
+      </c>
+      <c r="E60" s="3">
         <v>87280000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>92307000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>92482000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>94502000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>97312000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>91846000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>92189000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>83615000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>81590000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>79417000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>77725000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>75532000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>74648000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>54409000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>52909000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>49781000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>50134000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>48489000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>57554000</v>
+      </c>
+      <c r="E61" s="3">
         <v>61890000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>57325000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>58457000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>33754000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19962000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>20298000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14859000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11363000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10657000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10487000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10507000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10471000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9782000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9780000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10055000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10432000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9568000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9824000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20430000</v>
+      </c>
+      <c r="E62" s="3">
         <v>21041000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23182000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23315000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24179000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24651000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24263000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24156000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24999000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24702000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25964000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>26337000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>26248000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>26219000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25673000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>29050000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>29305000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>29418000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>28487000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3677,8 +3825,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3736,8 +3887,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3795,67 +3949,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>168093000</v>
+      </c>
+      <c r="E66" s="3">
         <v>170452000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>173082000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>174539000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>152740000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>142242000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>136714000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>131583000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>120084000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>117020000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>115948000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>114636000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>112327000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>110706000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>89921000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>92073000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>89578000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>89180000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>86861000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3877,8 +4037,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3936,8 +4097,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3995,8 +4159,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4054,8 +4221,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4113,67 +4283,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>38073000</v>
+      </c>
+      <c r="E72" s="3">
         <v>38610000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>47029000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>47478000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>49854000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>50644000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53986000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>52819000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>58090000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>55941000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>54666000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>52303000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>52095000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>49618000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>44052000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>42222000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>42165000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>40714000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>40641000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4231,8 +4407,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4290,8 +4469,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4349,67 +4531,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-18058000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-18316000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11821000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-11667000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-9665000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-8617000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4116000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5322000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>125000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>339000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1289000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1441000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1222000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1656000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1086000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2037000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>95000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>817000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2089000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4467,131 +4655,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-537000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8420000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-449000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2376000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-628000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1166000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2942000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2147000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3422000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2361000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2196000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2474000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3318000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1808000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1749000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1577000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1631000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4613,67 +4810,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>536000</v>
+      </c>
+      <c r="E83" s="3">
         <v>578000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>565000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>547000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>556000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>628000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>576000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>546000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>521000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>583000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>523000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>507000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>501000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>582000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>522000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>494000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>471000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>546000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>474000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4731,8 +4932,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4790,8 +4994,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4849,8 +5056,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4908,8 +5118,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4967,67 +5180,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3387000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4009000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4819000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5280000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4302000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2220000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2424000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-590000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2788000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2947000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4559000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4680000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3136000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2903000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3396000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4949000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2098000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2832000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5049,67 +5268,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-291000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-265000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-262000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-348000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-428000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-447000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-465000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-421000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-501000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-495000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-457000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-376000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-394000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-435000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-399000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-439000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-932000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-599000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-595000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5167,8 +5390,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5226,67 +5452,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2764000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1543000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4137000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12307000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-379000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>517000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1194000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-86000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-767000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2424000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-902000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1414000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>119000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-457000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-218000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1123000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-260000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5308,8 +5540,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5323,52 +5556,55 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1158000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1157000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1156000</v>
       </c>
       <c r="J96" s="3">
         <v>-1156000</v>
       </c>
       <c r="K96" s="3">
+        <v>-1156000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1161000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-970000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-979000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-991000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1006000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-842000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-855000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-852000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-868000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-672000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-676000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5426,8 +5662,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5485,8 +5724,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5544,181 +5786,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2681000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-468000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>22462000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10280000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1403000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4240000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2919000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2823000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-856000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3689000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4332000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2845000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2241000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3335000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3311000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2463000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1574000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2204000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E101" s="3">
         <v>59000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>37000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>36000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-47000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>22000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-25000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-16000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-44000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>21000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>32000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>20000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-27000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-689000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2812000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9387000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4911000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5552000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-278000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>597000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2240000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-801000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-349000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-33000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1110000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>418000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>212000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-136000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>547000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-605000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-185000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>381000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>BA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,273 +665,285 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16998000</v>
+      </c>
+      <c r="E8" s="3">
         <v>15217000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15802000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14139000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11807000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16908000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20560000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19980000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21361000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22917000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>28341000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25146000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>24258000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23382000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>24770000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>24223000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>23051000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>21961000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>23286000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>23898000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14588000</v>
+      </c>
+      <c r="E9" s="3">
         <v>13808000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20992000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13105000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12978000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16768000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>18708000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16930000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17810000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18645000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22090000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>21040000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19536000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18824000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>19881000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19956000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>18702000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>18073000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>19464000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>19904000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2410000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1409000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-5190000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1034000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-1171000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>140000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1852000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3050000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3551000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4272000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6251000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4106000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4722000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4558000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4889000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4267000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4349000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3888000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3822000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3994000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -954,70 +966,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>497000</v>
+      </c>
+      <c r="E12" s="3">
         <v>499000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>605000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>574000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>625000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>672000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>749000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>778000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>826000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>866000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>852000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>826000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>827000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>764000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>762000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>768000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>813000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>836000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>726000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>857000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1078,19 +1094,22 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3">
         <v>498000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
@@ -1098,17 +1117,17 @@
       <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3">
         <v>2649000</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5610000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>24</v>
@@ -1119,8 +1138,8 @@
       <c r="O14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1140,8 +1159,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1202,8 +1224,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1223,132 +1248,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>15975000</v>
+      </c>
+      <c r="E17" s="3">
         <v>15300000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23851000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14540000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14771000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18261000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22764000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18721000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24741000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20567000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24166000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22919000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21548000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20507000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21792000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21593000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>20521000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19755000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>21103000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>21616000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1023000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-83000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8049000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-401000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2964000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1353000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2204000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1259000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3380000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2350000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4175000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2227000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2710000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2875000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2978000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2630000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2530000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2206000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2183000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2282000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1371,318 +1403,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E20" s="3">
         <v>190000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>122000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>119000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>94000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>112000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>104000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>121000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>107000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>106000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>29000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>12000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-15000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>66000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>32000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>40000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>25000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>26000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1773000</v>
+      </c>
+      <c r="E21" s="3">
         <v>643000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7349000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>283000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2323000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-685000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1472000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1956000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2727000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2977000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4787000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2762000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3202000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3442000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3587000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3184000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3043000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2700000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2728000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2758000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>673000</v>
+      </c>
+      <c r="E22" s="3">
         <v>679000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>698000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>643000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>553000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>262000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>242000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>203000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>154000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>123000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>158000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>106000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>109000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>102000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>93000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>87000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>93000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>87000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>79000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>549000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-572000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8625000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-925000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3423000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1503000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2342000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1177000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3427000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2333000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4046000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2133000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2586000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2839000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2917000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2583000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2462000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2145000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2103000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2203000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-11000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-186000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-459000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1028000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-862000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1332000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-485000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>184000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>622000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-230000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>390000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>362000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>868000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>773000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>713000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>566000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>472000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1743,132 +1791,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>567000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-561000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8439000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-466000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2395000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-641000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1010000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1167000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2942000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2149000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3424000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2363000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2196000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2477000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2049000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1810000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1749000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1579000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1631000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2279000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>587000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-537000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8420000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-449000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2376000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-628000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1010000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1166000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2942000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2147000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3422000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2361000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2196000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2474000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2047000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1808000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1749000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1577000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1631000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1929,8 +1986,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1955,8 +2015,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -1973,11 +2033,11 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>1271000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -1991,8 +2051,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2053,8 +2116,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2115,132 +2181,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-199000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-190000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-122000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-119000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-94000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-112000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-104000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-121000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-107000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-106000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-29000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-12000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>15000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-32000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-40000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-25000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-26000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>587000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-537000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8420000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-449000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2376000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-628000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1166000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2942000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2147000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3422000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2361000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2196000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2474000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3318000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1808000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1749000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1577000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1631000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2301,137 +2376,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>587000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-537000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8420000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-449000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2376000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-628000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1166000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2942000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2147000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3422000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2361000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2196000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2474000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3318000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1808000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1749000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1577000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1631000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2454,8 +2538,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2478,303 +2563,316 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8271000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7059000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7752000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10564000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19992000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15039000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9485000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9763000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9167000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6836000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7637000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8034000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8121000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9235000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8813000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8569000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8737000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8190000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8801000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8986000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>13071000</v>
+      </c>
+      <c r="E42" s="3">
         <v>14861000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>17838000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>16552000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>12438000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>488000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>545000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1150000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>439000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>893000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>927000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1956000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1649000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>656000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1179000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1463000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1589000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1015000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1228000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11767000</v>
+      </c>
+      <c r="E43" s="3">
         <v>11234000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10051000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11722000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11478000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12725000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12471000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14808000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13709000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14217000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14364000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13260000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12985000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12868000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>11397000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11079000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>10052000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9915000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9260000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9889000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>81799000</v>
+      </c>
+      <c r="E44" s="3">
         <v>82668000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>81715000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>86961000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>83745000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>80020000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>76622000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>73279000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>68492000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>65369000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>62567000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>62038000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>61250000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>61303000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>33294000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>43031000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>42453000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>43247000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>43199000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>42680000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4187000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4123000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4286000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5213000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2624000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2739000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3106000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2656000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3304000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2194000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2335000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2398000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2396000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2481000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2417000</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>24</v>
@@ -2788,256 +2886,271 @@
       <c r="V45" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>119095000</v>
+      </c>
+      <c r="E46" s="3">
         <v>119945000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>121642000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>131012000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>130277000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>111011000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>102229000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>101656000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>95111000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>89509000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>87830000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>87686000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>86401000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>86543000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>85194000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>64142000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>62831000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>62367000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>62488000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>62237000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2748000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2875000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2952000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3062000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3120000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3240000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3472000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3438000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3525000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3663000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3749000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4270000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4315000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4296000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4513000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4665000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5032000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5202000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5446000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5060000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11341000</v>
+      </c>
+      <c r="E48" s="3">
         <v>11643000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13072000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11969000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12182000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12405000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13684000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13705000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13665000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13602000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12645000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12571000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12605000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12628000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12672000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12712000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12820000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12842000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12807000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12713000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9915000</v>
+      </c>
+      <c r="E49" s="3">
         <v>9930000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10195000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10341000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10466000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11313000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11398000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11650000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11812000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11465000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11269000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8252000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8044000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8083000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8132000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7867000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7914000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7838000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7864000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7616000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3098,8 +3211,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3160,70 +3276,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5836000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5642000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4275000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4877000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6827000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5106000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2842000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2149000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2148000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1970000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1866000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1880000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1830000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1999000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1851000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1621000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1439000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1424000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1392000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3284,70 +3406,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>148935000</v>
+      </c>
+      <c r="E54" s="3">
         <v>150035000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>152136000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>161261000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>162872000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>143075000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>133625000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>132598000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>126261000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>120209000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>117359000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>114659000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>113195000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>113549000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>112362000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>91007000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>90036000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>89673000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>89997000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>88950000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3370,8 +3498,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3394,380 +3523,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11450000</v>
+      </c>
+      <c r="E57" s="3">
         <v>12410000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12928000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14479000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13700000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14963000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15553000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15101000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15267000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14693000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12916000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13663000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12904000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12613000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12202000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12718000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12093000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11964000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11190000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11968000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6534000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6021000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1693000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3634000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2922000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5173000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7340000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4354000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4357000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3381000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3190000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1389000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1611000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1981000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1335000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>988000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>720000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>367000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>384000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>70240000</v>
+      </c>
+      <c r="E59" s="3">
         <v>71461000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>72659000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>74194000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>75860000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>74366000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>74419000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>72391000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>72565000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>65541000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>65484000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>64365000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>63210000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>60938000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>101620000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>40703000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>40096000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>37450000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>38560000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>35889000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>88224000</v>
+      </c>
+      <c r="E60" s="3">
         <v>89892000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>87280000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>92307000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>92482000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>94502000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>97312000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>91846000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>92189000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>83615000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>81590000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>79417000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>77725000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>75532000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>74648000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>54409000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>52909000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>49781000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>50134000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>48489000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>57025000</v>
+      </c>
+      <c r="E61" s="3">
         <v>57554000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>61890000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>57325000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>58457000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>33754000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19962000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>20298000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14859000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11363000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10657000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10487000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10507000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10471000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9782000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9780000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10055000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10432000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9568000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9824000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20171000</v>
+      </c>
+      <c r="E62" s="3">
         <v>20430000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21041000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23182000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23315000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24179000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24651000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24263000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24156000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24999000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24702000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25964000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>26337000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>26248000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>26219000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25673000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>29050000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>29305000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>29418000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>28487000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3828,8 +3976,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3890,8 +4041,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3952,70 +4106,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>165617000</v>
+      </c>
+      <c r="E66" s="3">
         <v>168093000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>170452000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>173082000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>174539000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>152740000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>142242000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>136714000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>131583000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>120084000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>117020000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>115948000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>114636000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>112327000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>110706000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>89921000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>92073000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>89578000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>89180000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>86861000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4038,8 +4198,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4100,8 +4261,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4162,8 +4326,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4224,8 +4391,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4286,70 +4456,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>38660000</v>
+      </c>
+      <c r="E72" s="3">
         <v>38073000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>38610000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>47029000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>47478000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>49854000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>50644000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53986000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>52819000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>58090000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>55941000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>54666000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>52303000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>52095000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>49618000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>44052000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>42222000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>42165000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>40714000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>40641000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4410,8 +4586,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4472,8 +4651,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4534,70 +4716,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-16682000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-18058000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-18316000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-11821000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-11667000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9665000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-8617000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4116000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5322000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>125000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>339000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1289000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1441000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1222000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1656000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1086000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2037000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>95000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>817000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2089000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4658,137 +4846,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>587000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-537000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8420000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-449000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2376000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-628000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1166000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2942000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2147000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3422000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2361000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2196000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2474000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3318000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1808000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1749000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1577000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1631000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4811,70 +5008,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>551000</v>
+      </c>
+      <c r="E83" s="3">
         <v>536000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>578000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>565000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>547000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>556000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>628000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>576000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>546000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>521000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>583000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>523000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>507000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>501000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>582000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>522000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>494000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>471000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>546000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>474000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4935,8 +5136,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4997,8 +5201,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5059,8 +5266,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5121,8 +5331,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5183,70 +5396,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-483000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3387000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4009000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4819000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5280000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4302000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2220000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2424000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-590000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2788000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2947000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4559000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4680000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3136000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2903000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3396000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4949000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2098000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2832000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5269,70 +5488,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-222000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-291000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-265000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-262000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-348000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-428000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-447000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-465000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-421000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-501000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-495000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-457000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-376000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-394000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-435000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-399000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-439000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-932000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-599000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-595000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5393,8 +5616,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5455,70 +5681,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1659000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2764000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1543000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4137000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12307000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-379000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>517000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1194000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-86000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-767000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2424000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-902000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1414000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>119000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-457000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-218000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1123000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-260000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5541,8 +5773,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5559,52 +5792,55 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1158000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1157000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1156000</v>
       </c>
       <c r="K96" s="3">
         <v>-1156000</v>
       </c>
       <c r="L96" s="3">
+        <v>-1156000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1161000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-970000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-979000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-991000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1006000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-842000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-855000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-852000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-868000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-672000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-676000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5665,8 +5901,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5727,8 +5966,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5789,190 +6031,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-48000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2681000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-468000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>22462000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10280000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1403000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4240000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2919000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2823000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-856000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3689000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4332000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2845000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2241000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3335000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3311000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2463000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1574000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2204000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-18000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>59000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>37000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>36000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-47000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>22000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-25000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-16000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-44000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>8000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>21000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>32000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>20000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-27000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1161000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-689000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2812000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9387000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4911000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5552000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-278000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>597000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2240000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-801000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-349000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-33000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1110000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>418000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>212000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-136000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>547000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-605000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-185000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>381000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>BA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,285 +665,297 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15278000</v>
+      </c>
+      <c r="E8" s="3">
         <v>16998000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15217000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15802000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14139000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11807000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16908000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20560000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19980000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21361000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22917000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>28341000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>25146000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>24258000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23382000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>24770000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>24223000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>23051000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>21961000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>23286000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>23898000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13566000</v>
+      </c>
+      <c r="E9" s="3">
         <v>14588000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13808000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>20992000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13105000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12978000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16768000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18708000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16930000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17810000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18645000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22090000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>21040000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19536000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>18824000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19881000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>19956000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>18702000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>18073000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>19464000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>19904000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1712000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2410000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1409000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-5190000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1034000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-1171000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>140000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1852000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3050000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3551000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4272000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6251000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4106000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4722000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4558000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4889000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4267000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4349000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3888000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3822000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3994000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -967,73 +979,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>575000</v>
+      </c>
+      <c r="E12" s="3">
         <v>497000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>499000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>605000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>574000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>625000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>672000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>749000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>778000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>826000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>866000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>852000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>826000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>827000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>764000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>762000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>768000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>813000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>836000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>726000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>857000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1097,8 +1113,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,11 +1127,11 @@
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3">
         <v>498000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>24</v>
@@ -1120,17 +1139,17 @@
       <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="3">
         <v>2649000</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5610000</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>24</v>
@@ -1141,8 +1160,8 @@
       <c r="P14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1162,8 +1181,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1227,8 +1249,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1249,138 +1274,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>14949000</v>
+      </c>
+      <c r="E17" s="3">
         <v>15975000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15300000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23851000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14540000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14771000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18261000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22764000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18721000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24741000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20567000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24166000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22919000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21548000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20507000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21792000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21593000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>20521000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19755000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>21103000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>21616000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>329000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1023000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-83000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8049000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-401000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2964000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1353000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2204000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1259000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3380000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2350000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4175000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2227000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2710000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2875000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2978000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2630000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2530000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2206000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2183000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2282000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1404,333 +1436,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E20" s="3">
         <v>199000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>190000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>122000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>119000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>94000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>112000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>104000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>121000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>107000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>106000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>29000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>12000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>66000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>32000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>40000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>25000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>26000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>882000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1773000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>643000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7349000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>283000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2323000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-685000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1472000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1956000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2727000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2977000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4787000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2762000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3202000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3442000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3587000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3184000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3043000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2700000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2728000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2758000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>669000</v>
+      </c>
+      <c r="E22" s="3">
         <v>673000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>679000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>698000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>643000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>553000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>262000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>242000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>203000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>154000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>123000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>158000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>106000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>109000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>102000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>93000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>87000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>93000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>87000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>79000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-310000</v>
+      </c>
+      <c r="E23" s="3">
         <v>549000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-572000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8625000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-925000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3423000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1503000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2342000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1177000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3427000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2333000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4046000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2133000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2586000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2839000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2917000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2583000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2462000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2145000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2103000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2203000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-18000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-11000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-186000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-459000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1028000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-862000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1332000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-485000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>184000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>622000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-230000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>390000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>362000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>868000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>773000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>713000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>566000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>472000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1794,138 +1842,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="E26" s="3">
         <v>567000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-561000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8439000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-466000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2395000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-641000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1010000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1167000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2942000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2149000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3424000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2363000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2196000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2477000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2049000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1810000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1749000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1579000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1631000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2279000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E27" s="3">
         <v>587000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-537000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8420000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-449000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2376000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-628000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1010000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1166000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2942000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2147000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3422000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2361000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2196000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2474000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2047000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1808000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1749000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1577000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1631000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1989,8 +2046,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2018,8 +2078,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -2036,11 +2096,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>1271000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2054,8 +2114,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2119,8 +2182,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2184,138 +2250,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-199000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-190000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-122000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-119000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-94000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-112000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-104000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-121000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-107000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-106000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-29000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-12000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>15000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-66000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-32000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-40000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-25000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-26000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E33" s="3">
         <v>587000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-537000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8420000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-449000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2376000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-628000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1166000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2942000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2147000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3422000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2361000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2196000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2474000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3318000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1808000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1749000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1577000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1631000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2379,143 +2454,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E35" s="3">
         <v>587000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-537000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8420000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-449000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2376000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-628000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1166000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2942000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2147000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3422000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2361000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2196000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2474000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3318000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1808000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1749000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1577000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1631000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2539,8 +2623,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2564,318 +2649,331 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9764000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8271000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7059000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7752000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10564000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19992000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15039000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9485000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9763000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9167000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6836000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7637000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8034000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8121000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9235000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8813000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8569000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8737000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8190000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8801000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8986000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10231000</v>
+      </c>
+      <c r="E42" s="3">
         <v>13071000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14861000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>17838000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>16552000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>12438000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>488000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>545000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1150000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>439000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>893000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>927000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1956000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1649000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>656000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1179000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1463000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1589000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1015000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1228000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12332000</v>
+      </c>
+      <c r="E43" s="3">
         <v>11767000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11234000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10051000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11722000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11478000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12725000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12471000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14808000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13709000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14217000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14364000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>13260000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12985000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12868000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11397000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>11079000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>10052000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9915000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9260000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9889000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>81897000</v>
+      </c>
+      <c r="E44" s="3">
         <v>81799000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>82668000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>81715000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>86961000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>83745000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>80020000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>76622000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>73279000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>68492000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>65369000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>62567000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>62038000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>61250000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>61303000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>33294000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>43031000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>42453000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>43247000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>43199000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>42680000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2664000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4187000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4123000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4286000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5213000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2624000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2739000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3106000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2656000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3304000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2194000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2335000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2398000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2396000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2481000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2417000</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>24</v>
@@ -2889,268 +2987,283 @@
       <c r="W45" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>116888000</v>
+      </c>
+      <c r="E46" s="3">
         <v>119095000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>119945000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>121642000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>131012000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>130277000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>111011000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>102229000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>101656000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>95111000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>89509000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>87830000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>87686000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>86401000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>86543000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>85194000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>64142000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>62831000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>62367000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>62488000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>62237000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2758000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2748000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2875000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2952000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3062000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3120000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3240000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3472000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3438000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3525000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3663000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3749000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4270000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4315000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4296000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4513000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4665000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5032000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5202000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5446000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5060000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11113000</v>
+      </c>
+      <c r="E48" s="3">
         <v>11341000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11643000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13072000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11969000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12182000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12405000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13684000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13705000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13665000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13602000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12645000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12571000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12605000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12628000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12672000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12712000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12820000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12842000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12807000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12713000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9785000</v>
+      </c>
+      <c r="E49" s="3">
         <v>9915000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9930000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10195000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10341000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10466000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11313000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11398000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11650000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11812000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11465000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11269000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8252000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8044000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8083000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8132000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7867000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7914000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7838000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7864000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7616000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3214,8 +3327,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3279,73 +3395,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6302000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5836000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5642000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4275000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4877000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6827000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5106000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2842000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2149000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2148000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1970000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1866000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1880000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1830000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1999000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1851000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1621000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1439000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1424000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1392000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3409,73 +3531,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>146846000</v>
+      </c>
+      <c r="E54" s="3">
         <v>148935000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>150035000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>152136000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>161261000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>162872000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>143075000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>133625000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>132598000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>126261000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>120209000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>117359000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>114659000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>113195000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>113549000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>112362000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>91007000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>90036000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>89673000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>89997000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>88950000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3499,8 +3627,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3524,398 +3653,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10151000</v>
+      </c>
+      <c r="E57" s="3">
         <v>11450000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12410000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12928000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14479000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13700000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14963000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15553000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15101000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15267000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14693000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12916000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13663000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12904000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12613000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12202000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12718000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12093000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11964000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11190000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>11968000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5377000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6534000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6021000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1693000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3634000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2922000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5173000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7340000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4354000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4357000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3381000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3190000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1389000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1611000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1981000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1335000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>988000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>720000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>367000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>384000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>70243000</v>
+      </c>
+      <c r="E59" s="3">
         <v>70240000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>71461000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>72659000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>74194000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>75860000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>74366000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>74419000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>72391000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>72565000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>65541000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>65484000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>64365000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>63210000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>60938000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>101620000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>40703000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>40096000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>37450000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>38560000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>35889000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>85771000</v>
+      </c>
+      <c r="E60" s="3">
         <v>88224000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>89892000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>87280000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>92307000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>92482000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>94502000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>97312000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>91846000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>92189000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>83615000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>81590000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>79417000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>77725000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>75532000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>74648000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>54409000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>52909000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>49781000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>50134000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>48489000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>57042000</v>
+      </c>
+      <c r="E61" s="3">
         <v>57025000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>57554000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>61890000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>57325000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>58457000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>33754000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19962000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20298000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14859000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11363000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10657000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10487000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10507000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10471000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9782000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9780000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10055000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10432000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9568000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9824000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18299000</v>
+      </c>
+      <c r="E62" s="3">
         <v>20171000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20430000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21041000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23182000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23315000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24179000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24651000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24263000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24156000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24999000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24702000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25964000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>26337000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>26248000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>26219000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>25673000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>29050000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>29305000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>29418000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>28487000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3979,8 +4127,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4044,8 +4195,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4109,73 +4263,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>161286000</v>
+      </c>
+      <c r="E66" s="3">
         <v>165617000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>168093000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>170452000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>173082000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>174539000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>152740000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>142242000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>136714000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>131583000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>120084000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>117020000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>115948000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>114636000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>112327000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>110706000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>89921000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>92073000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>89578000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>89180000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>86861000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4199,8 +4359,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4264,8 +4425,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4329,8 +4493,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4394,8 +4561,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4459,73 +4629,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>38551000</v>
+      </c>
+      <c r="E72" s="3">
         <v>38660000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>38073000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>38610000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>47029000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>47478000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>49854000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>50644000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53986000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>52819000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>58090000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>55941000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>54666000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>52303000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>52095000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>49618000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>44052000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>42222000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>42165000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>40714000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>40641000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4589,8 +4765,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4654,8 +4833,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4719,73 +4901,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-14440000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-16682000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-18058000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-18316000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-11821000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-11667000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9665000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8617000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4116000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5322000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>125000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>339000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1289000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1441000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1222000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1656000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1086000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2037000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>95000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>817000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2089000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4849,143 +5037,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E81" s="3">
         <v>587000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-537000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8420000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-449000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2376000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-628000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1166000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2942000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2147000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3422000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2361000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2196000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2474000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3318000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1808000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1749000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1577000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1631000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5009,73 +5206,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>523000</v>
+      </c>
+      <c r="E83" s="3">
         <v>551000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>536000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>578000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>565000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>547000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>556000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>628000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>576000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>546000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>521000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>583000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>523000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>507000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>501000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>582000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>522000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>494000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>471000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>546000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>474000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5139,8 +5340,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5204,8 +5408,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5269,8 +5476,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5334,8 +5544,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5399,73 +5612,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-262000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-483000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3387000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4009000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4819000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5280000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4302000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2220000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2424000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-590000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2788000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2947000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4559000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4680000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3136000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2903000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3396000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4949000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2098000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2832000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5489,73 +5708,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-245000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-222000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-291000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-265000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-262000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-348000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-428000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-447000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-465000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-421000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-501000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-495000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-457000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-376000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-394000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-435000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-399000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-439000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-932000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-599000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-595000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5619,8 +5842,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5684,73 +5910,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2966000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1659000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2764000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1543000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4137000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12307000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-379000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>517000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1194000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-86000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-767000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2424000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-902000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1414000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>119000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-457000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-218000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1123000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-260000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5774,8 +6006,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5795,52 +6028,55 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1158000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1157000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-1156000</v>
       </c>
       <c r="L96" s="3">
         <v>-1156000</v>
       </c>
       <c r="M96" s="3">
+        <v>-1156000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1161000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-970000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-979000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-991000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1006000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-842000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-855000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-852000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-868000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-672000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-676000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5904,8 +6140,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5969,8 +6208,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6034,199 +6276,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1171000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-48000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2681000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-468000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>22462000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10280000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1403000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4240000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2919000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2823000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-856000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3689000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4332000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2845000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2241000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3335000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3311000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2463000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1574000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2204000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-18000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>59000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>37000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>36000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-47000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>22000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-25000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>21000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>32000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>20000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-27000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1513000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1161000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-689000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2812000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9387000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4911000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5552000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-278000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>597000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2240000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-801000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-349000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-33000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1110000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>418000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>212000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-136000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>547000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-605000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-185000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>381000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>BA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,297 +665,309 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14793000</v>
+      </c>
+      <c r="E8" s="3">
         <v>15278000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16998000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15217000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15802000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14139000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11807000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16908000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20560000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19980000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21361000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22917000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>28341000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>25146000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>24258000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>23382000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>24770000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>24223000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>23051000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>21961000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>23286000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>23898000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17307000</v>
+      </c>
+      <c r="E9" s="3">
         <v>13566000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14588000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13808000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>20992000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13105000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12978000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16768000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18708000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16930000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17810000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18645000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>22090000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>21040000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>19536000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>18824000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>19881000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>19956000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>18702000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>18073000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>19464000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>19904000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-2514000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1712000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2410000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1409000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-5190000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1034000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-1171000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>140000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1852000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3050000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3551000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4272000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6251000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4106000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4722000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4558000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4889000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4267000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4349000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3888000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3822000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3994000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -980,76 +992,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>678000</v>
+      </c>
+      <c r="E12" s="3">
         <v>575000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>497000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>499000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>605000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>574000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>625000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>672000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>749000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>778000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>826000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>866000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>852000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>826000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>827000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>764000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>762000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>768000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>813000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>836000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>726000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>857000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1116,8 +1132,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1130,11 +1149,11 @@
       <c r="F14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3">
         <v>498000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>24</v>
@@ -1142,17 +1161,17 @@
       <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="3">
         <v>2649000</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5610000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>24</v>
@@ -1163,8 +1182,8 @@
       <c r="Q14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1184,8 +1203,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1252,8 +1274,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1275,144 +1300,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>18964000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14949000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15975000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15300000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23851000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14540000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14771000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18261000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22764000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18721000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24741000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20567000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>24166000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22919000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21548000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20507000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21792000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21593000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>20521000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>19755000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>21103000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>21616000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-4171000</v>
+      </c>
+      <c r="E18" s="3">
         <v>329000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1023000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-83000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8049000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-401000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2964000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1353000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2204000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1259000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3380000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2350000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4175000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2227000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2710000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2875000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2978000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2630000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2530000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2206000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2183000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2282000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1437,348 +1469,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>132000</v>
+      </c>
+      <c r="E20" s="3">
         <v>30000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>199000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>190000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>122000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>119000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>94000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>112000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>104000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>121000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>107000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>106000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>29000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>12000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-15000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>66000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>32000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>40000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>25000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>26000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-3505000</v>
+      </c>
+      <c r="E21" s="3">
         <v>882000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1773000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>643000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7349000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>283000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2323000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-685000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1472000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1956000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2727000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2977000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4787000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2762000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3202000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3442000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3587000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3184000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3043000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2700000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2728000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2758000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>661000</v>
+      </c>
+      <c r="E22" s="3">
         <v>669000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>673000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>679000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>698000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>643000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>553000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>262000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>242000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>203000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>154000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>123000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>158000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>106000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>109000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>102000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>93000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>87000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>93000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>87000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>79000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-4700000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-310000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>549000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-572000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8625000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-925000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3423000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1503000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2342000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1177000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3427000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2333000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4046000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2133000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2586000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2839000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2917000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2583000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2462000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2145000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2103000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2203000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-536000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-178000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-18000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-11000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-186000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-459000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1028000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-862000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1332000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-485000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>184000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>622000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-230000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>390000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>362000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>868000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>773000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>713000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>566000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>472000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1845,144 +1893,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-4164000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-132000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>567000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-561000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8439000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-466000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2395000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-641000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1010000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1167000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2942000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2149000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3424000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2363000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2196000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2477000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2049000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1810000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1749000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1579000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1631000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2279000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-4143000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-109000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>587000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-537000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8420000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-449000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2376000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-628000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1010000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1166000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2942000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2147000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3422000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2361000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2196000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2474000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2047000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1808000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1749000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1577000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1631000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2049,8 +2106,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2081,8 +2141,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -2099,11 +2159,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>1271000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2117,8 +2177,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2185,8 +2248,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2253,144 +2319,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-30000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-199000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-190000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-122000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-119000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-94000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-112000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-104000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-121000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-107000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-106000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-29000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>15000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-66000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-32000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-40000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-25000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-26000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4143000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-109000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>587000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-537000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8420000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-449000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2376000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-628000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1166000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2942000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2147000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3422000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2361000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2196000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2474000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3318000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1808000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1749000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1577000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1631000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2457,149 +2532,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4143000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-109000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>587000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-537000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8420000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-449000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2376000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-628000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1166000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2942000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2147000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3422000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2361000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2196000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2474000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3318000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1808000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1749000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1577000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1631000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2624,8 +2708,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2650,333 +2735,346 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8052000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9764000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8271000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7059000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7752000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10564000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19992000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15039000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9485000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9763000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9167000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6836000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7637000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8034000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8121000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9235000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8813000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8569000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8737000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8190000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8801000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8986000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8192000</v>
+      </c>
+      <c r="E42" s="3">
         <v>10231000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>13071000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>14861000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>17838000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>16552000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>12438000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>488000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>545000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1150000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>439000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>893000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>927000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1956000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1649000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>656000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1179000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1463000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1589000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1015000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1228000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11378000</v>
+      </c>
+      <c r="E43" s="3">
         <v>12332000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11767000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11234000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10051000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11722000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11478000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12725000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12471000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14808000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13709000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14217000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14364000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>13260000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12985000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12868000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>11397000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>11079000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>10052000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>9915000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9260000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9889000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>78823000</v>
+      </c>
+      <c r="E44" s="3">
         <v>81897000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>81799000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>82668000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>81715000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>86961000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>83745000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>80020000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>76622000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>73279000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>68492000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>65369000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>62567000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>62038000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>61250000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>61303000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>33294000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>43031000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>42453000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>43247000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>43199000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>42680000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2221000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2664000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4187000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4123000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4286000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5213000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2624000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2739000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3106000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2656000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3304000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2194000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2335000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2398000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2396000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2481000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2417000</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>24</v>
@@ -2990,280 +3088,295 @@
       <c r="X45" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>108666000</v>
+      </c>
+      <c r="E46" s="3">
         <v>116888000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>119095000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>119945000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>121642000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>131012000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>130277000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>111011000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>102229000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>101656000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>95111000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>89509000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>87830000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>87686000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>86401000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>86543000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>85194000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>64142000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>62831000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>62367000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>62488000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>62237000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2670000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2758000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2748000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2875000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2952000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3062000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3120000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3240000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3472000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3438000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3525000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3663000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3749000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4270000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4315000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4296000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4513000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4665000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5032000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5202000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5446000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5060000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10918000</v>
+      </c>
+      <c r="E48" s="3">
         <v>11113000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11341000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11643000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13072000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11969000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12182000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12405000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13684000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13705000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13665000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13602000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12645000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12571000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12605000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12628000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12672000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12712000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12820000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12842000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12807000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12713000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9655000</v>
+      </c>
+      <c r="E49" s="3">
         <v>9785000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9915000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9930000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10195000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10341000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10466000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11313000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11398000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11650000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11812000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11465000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11269000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8252000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8044000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8083000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8132000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7867000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7914000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7838000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7864000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7616000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3330,8 +3443,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3398,76 +3514,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6643000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6302000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5836000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5642000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4275000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4877000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6827000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5106000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2842000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2149000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2148000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1970000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1866000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1880000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1830000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1999000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1851000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1621000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1439000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1424000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1392000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3534,76 +3656,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>138552000</v>
+      </c>
+      <c r="E54" s="3">
         <v>146846000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>148935000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>150035000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>152136000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>161261000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>162872000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>143075000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>133625000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>132598000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>126261000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>120209000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>117359000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>114659000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>113195000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>113549000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>112362000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>91007000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>90036000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>89673000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>89997000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>88950000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3628,8 +3756,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3654,416 +3783,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9261000</v>
+      </c>
+      <c r="E57" s="3">
         <v>10151000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11450000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12410000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12928000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14479000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>13700000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14963000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15553000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15101000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15267000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14693000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12916000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13663000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12904000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12613000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12202000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12718000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12093000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11964000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>11190000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>11968000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1296000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5377000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6534000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6021000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1693000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3634000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2922000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5173000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7340000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4354000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4357000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3381000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3190000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1389000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1611000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1981000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1335000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>988000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>720000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>367000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>384000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>71435000</v>
+      </c>
+      <c r="E59" s="3">
         <v>70243000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>70240000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>71461000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>72659000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>74194000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>75860000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>74366000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>74419000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>72391000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>72565000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>65541000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>65484000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>64365000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>63210000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>60938000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>101620000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>40703000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>40096000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>37450000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>38560000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>35889000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>81992000</v>
+      </c>
+      <c r="E60" s="3">
         <v>85771000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>88224000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>89892000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>87280000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>92307000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>92482000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>94502000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>97312000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>91846000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>92189000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>83615000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>81590000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>79417000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>77725000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>75532000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>74648000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>54409000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>52909000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>49781000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>50134000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>48489000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>56806000</v>
+      </c>
+      <c r="E61" s="3">
         <v>57042000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>57025000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>57554000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>61890000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>57325000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>58457000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>33754000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19962000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20298000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14859000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11363000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10657000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10487000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10507000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10471000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9782000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9780000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10055000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10432000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9568000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9824000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14600000</v>
+      </c>
+      <c r="E62" s="3">
         <v>18299000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20171000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20430000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21041000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23182000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23315000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24179000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24651000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24263000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24156000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24999000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24702000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25964000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>26337000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>26248000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>26219000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>25673000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>29050000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>29305000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>29418000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>28487000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4130,8 +4278,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4198,8 +4349,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4266,76 +4420,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>153551000</v>
+      </c>
+      <c r="E66" s="3">
         <v>161286000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>165617000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>168093000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>170452000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>173082000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>174539000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>152740000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>142242000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>136714000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>131583000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>120084000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>117020000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>115948000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>114636000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>112327000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>110706000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>89921000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>92073000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>89578000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>89180000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>86861000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4360,8 +4520,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4428,8 +4589,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4496,8 +4660,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4564,8 +4731,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4632,76 +4802,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>34408000</v>
+      </c>
+      <c r="E72" s="3">
         <v>38551000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>38660000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>38073000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>38610000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>47029000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>47478000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>49854000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50644000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>53986000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>52819000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>58090000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>55941000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>54666000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>52303000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>52095000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>49618000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>44052000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>42222000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>42165000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>40714000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>40641000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4768,8 +4944,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4836,8 +5015,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4904,76 +5086,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-14999000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-14440000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-16682000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-18058000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-18316000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-11821000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-11667000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-9665000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8617000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4116000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5322000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>125000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>339000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1289000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1441000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1222000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1656000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1086000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2037000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>95000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>817000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2089000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5040,149 +5228,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4143000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-109000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>587000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-537000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8420000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-449000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2376000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-628000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1166000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2942000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2147000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3422000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2361000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2196000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2474000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3318000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1808000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1749000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1577000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1631000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5207,76 +5404,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>534000</v>
+      </c>
+      <c r="E83" s="3">
         <v>523000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>551000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>536000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>578000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>565000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>547000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>556000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>628000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>576000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>546000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>521000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>583000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>523000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>507000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>501000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>582000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>522000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>494000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>471000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>546000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>474000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5343,8 +5544,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5411,8 +5615,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5479,8 +5686,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5547,8 +5757,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5615,76 +5828,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>716000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-262000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-483000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3387000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4009000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4819000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5280000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4302000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2220000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2424000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-590000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2788000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2947000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4559000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4680000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3136000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2903000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3396000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4949000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2098000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2832000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5709,76 +5928,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-222000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-245000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-222000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-291000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-265000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-262000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-348000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-428000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-447000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-465000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-421000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-501000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-495000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-457000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-376000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-394000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-435000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-399000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-439000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-932000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-599000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-595000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5845,8 +6068,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5913,76 +6139,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1935000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2966000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1659000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2764000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1543000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4137000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12307000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-379000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>517000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1194000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-86000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-767000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2424000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-902000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1414000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>119000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-457000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-218000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1123000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-260000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6007,8 +6239,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6031,52 +6264,55 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1158000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1157000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1156000</v>
       </c>
       <c r="M96" s="3">
         <v>-1156000</v>
       </c>
       <c r="N96" s="3">
+        <v>-1156000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1161000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-970000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-979000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-991000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1006000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-842000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-855000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-852000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-868000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-672000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-676000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6143,8 +6379,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6211,8 +6450,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6279,208 +6521,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4362000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1171000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-19000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-48000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2681000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-468000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>22462000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10280000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1403000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4240000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2919000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2823000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-856000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3689000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4332000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2845000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2241000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3335000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3311000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2463000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1574000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2204000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-20000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-18000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>59000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>37000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>36000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-47000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>22000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-25000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-16000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-44000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>7000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>21000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>32000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>20000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-27000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1716000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1513000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1161000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-689000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2812000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9387000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4911000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5552000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-278000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>597000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2240000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-801000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-349000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1110000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>418000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>212000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-136000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>547000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-605000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-185000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>381000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>BA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,321 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13991000</v>
+      </c>
+      <c r="E8" s="3">
         <v>14793000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15278000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16998000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15217000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15802000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14139000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11807000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16908000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20560000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19980000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21361000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22917000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>28341000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>25146000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>24258000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>23382000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>24770000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>24223000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>23051000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>21961000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>23286000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>23898000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13645000</v>
+      </c>
+      <c r="E9" s="3">
         <v>17307000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13566000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14588000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13808000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>20992000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13105000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12978000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16768000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18708000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16930000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17810000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18645000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>22090000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>21040000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19536000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>18824000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>19881000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>19956000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>18702000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>18073000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>19464000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>19904000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-2514000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1712000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2410000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1409000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-5190000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1034000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-1171000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>140000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1852000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3050000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3551000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4272000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6251000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4106000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4722000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4558000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4889000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4267000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4349000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3888000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3822000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3994000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -993,79 +1005,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>633000</v>
+      </c>
+      <c r="E12" s="3">
         <v>678000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>575000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>497000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>499000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>605000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>574000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>625000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>672000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>749000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>778000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>826000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>866000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>852000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>826000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>827000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>764000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>762000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>768000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>813000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>836000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>726000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>857000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1135,8 +1151,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1152,11 +1171,11 @@
       <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3">
         <v>498000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>24</v>
@@ -1164,17 +1183,17 @@
       <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="3">
         <v>2649000</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5610000</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>24</v>
@@ -1185,8 +1204,8 @@
       <c r="R14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1206,8 +1225,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1277,8 +1299,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1301,150 +1326,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>15160000</v>
+      </c>
+      <c r="E17" s="3">
         <v>18964000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14949000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15975000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15300000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23851000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14540000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14771000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18261000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22764000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18721000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24741000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20567000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>24166000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22919000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21548000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>20507000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21792000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>21593000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>20521000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>19755000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>21103000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>21616000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-1169000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4171000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>329000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1023000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-83000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8049000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-401000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2964000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1353000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2204000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1259000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3380000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2350000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4175000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2227000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2710000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2875000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2978000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2630000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2530000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2206000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2183000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2282000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1470,363 +1502,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E20" s="3">
         <v>132000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>30000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>199000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>190000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>122000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>119000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>94000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>112000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>104000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>121000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>107000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>106000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>29000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>12000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-15000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>66000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>32000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>40000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>25000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>26000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-502000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3505000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>882000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1773000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>643000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7349000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>283000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2323000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-685000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1472000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1956000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2727000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2977000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4787000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2762000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3202000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3442000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3587000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3184000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3043000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2700000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2728000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2758000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>630000</v>
+      </c>
+      <c r="E22" s="3">
         <v>661000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>669000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>673000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>679000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>698000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>643000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>553000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>262000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>242000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>203000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>154000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>123000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>158000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>106000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>109000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>102000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>93000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>87000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>93000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>87000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>79000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-1618000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4700000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-310000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>549000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-572000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8625000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-925000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3423000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1503000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2342000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1177000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3427000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2333000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4046000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2133000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2586000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2839000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2917000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2583000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2462000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2145000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2103000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2203000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-376000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-536000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-178000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-18000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-11000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-186000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-459000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1028000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-862000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1332000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-485000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>184000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>622000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-230000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>390000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>362000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>868000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>773000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>713000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>566000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>472000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1896,150 +1944,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-1242000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4164000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-132000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>567000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-561000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8439000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-466000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2395000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-641000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1010000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1167000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2942000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2149000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3424000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2363000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2196000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2477000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2049000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1810000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1749000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1579000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1631000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2279000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-1219000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4143000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-109000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>587000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-537000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8420000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-449000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2376000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-628000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1010000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1166000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2942000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2147000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3422000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2361000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2196000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2474000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2047000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1808000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1749000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1577000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1631000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2109,8 +2166,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2144,8 +2204,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -2162,11 +2222,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
         <v>1271000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2180,8 +2240,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2251,8 +2314,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2322,150 +2388,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-132000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-30000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-199000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-190000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-122000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-119000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-94000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-112000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-104000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-121000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-107000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-106000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-12000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>15000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-66000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-32000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-40000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-25000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-26000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1219000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4143000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-109000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>587000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-537000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8420000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-449000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2376000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-628000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1166000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2942000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2147000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3422000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2361000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2196000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2474000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3318000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1808000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1749000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1577000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1631000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2535,155 +2610,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1219000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4143000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-109000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>587000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-537000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8420000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-449000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2376000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-628000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1166000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2942000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2147000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3422000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2361000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2196000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2474000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3318000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1808000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1749000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1577000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1631000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2709,8 +2793,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2736,348 +2821,361 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7409000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8052000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9764000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8271000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7059000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7752000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10564000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19992000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15039000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9485000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9763000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9167000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6836000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7637000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8034000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8121000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9235000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8813000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8569000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8737000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8190000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8801000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8986000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4873000</v>
+      </c>
+      <c r="E42" s="3">
         <v>8192000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>10231000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>13071000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>14861000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>17838000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>16552000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>12438000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>488000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>545000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1150000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>439000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>893000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>927000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1956000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1649000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>656000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1179000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1463000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1589000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1015000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1228000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11555000</v>
+      </c>
+      <c r="E43" s="3">
         <v>11378000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12332000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11767000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11234000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10051000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11722000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11478000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12725000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12471000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14808000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13709000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14217000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14364000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>13260000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12985000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>12868000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>11397000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>11079000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>10052000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>9915000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9260000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9889000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>79819000</v>
+      </c>
+      <c r="E44" s="3">
         <v>78823000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>81897000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>81799000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>82668000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>81715000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>86961000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>83745000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>80020000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>76622000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>73279000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>68492000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>65369000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>62567000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>62038000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>61250000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>61303000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>33294000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>43031000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>42453000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>43247000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>43199000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>42680000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2356000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2221000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2664000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4187000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4123000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4286000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5213000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2624000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2739000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3106000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2656000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3304000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2194000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2335000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2398000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2396000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2481000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2417000</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>24</v>
@@ -3091,292 +3189,307 @@
       <c r="Y45" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>106012000</v>
+      </c>
+      <c r="E46" s="3">
         <v>108666000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>116888000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>119095000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>119945000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>121642000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>131012000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>130277000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>111011000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>102229000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>101656000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>95111000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>89509000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>87830000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>87686000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>86401000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>86543000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>85194000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>64142000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>62831000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>62367000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>62488000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>62237000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2572000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2670000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2758000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2748000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2875000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2952000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3062000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3120000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3240000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3472000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3438000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3525000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3663000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3749000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4270000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4315000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4296000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4513000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4665000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5032000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5202000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5446000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5060000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10755000</v>
+      </c>
+      <c r="E48" s="3">
         <v>10918000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11113000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11341000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11643000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13072000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11969000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12182000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12405000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13684000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13705000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13665000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13602000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12645000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12571000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12605000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12628000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12672000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12712000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12820000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12842000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12807000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12713000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9533000</v>
+      </c>
+      <c r="E49" s="3">
         <v>9655000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9785000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9915000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9930000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10195000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10341000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10466000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11313000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11398000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11650000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11812000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11465000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11269000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8252000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8044000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8083000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8132000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7867000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7914000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7838000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7864000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7616000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3446,8 +3559,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3517,79 +3633,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6929000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6643000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6302000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5836000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5642000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4275000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4877000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6827000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5106000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2842000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2149000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2148000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1970000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1866000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1880000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1830000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1999000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1851000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1621000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1439000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1424000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1392000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3659,79 +3781,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>135801000</v>
+      </c>
+      <c r="E54" s="3">
         <v>138552000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>146846000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>148935000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>150035000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>152136000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>161261000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>162872000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>143075000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>133625000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>132598000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>126261000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>120209000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>117359000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>114659000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>113195000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>113549000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>112362000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>91007000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>90036000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>89673000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>89997000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>88950000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3757,8 +3885,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3784,434 +3913,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8779000</v>
+      </c>
+      <c r="E57" s="3">
         <v>9261000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10151000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11450000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12410000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12928000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14479000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>13700000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14963000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15553000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15101000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15267000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14693000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12916000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13663000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12904000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12613000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12202000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12718000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12093000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>11964000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>11190000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>11968000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2591000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1296000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5377000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6534000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6021000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1693000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3634000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2922000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5173000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7340000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4354000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4357000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3381000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3190000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1389000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1611000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1981000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1335000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>988000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>720000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>367000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>384000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>70322000</v>
+      </c>
+      <c r="E59" s="3">
         <v>71435000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>70243000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>70240000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>71461000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>72659000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>74194000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>75860000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>74366000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>74419000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>72391000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>72565000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>65541000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>65484000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>64365000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>63210000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>60938000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>101620000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>40703000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>40096000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>37450000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>38560000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>35889000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>81692000</v>
+      </c>
+      <c r="E60" s="3">
         <v>81992000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>85771000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>88224000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>89892000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>87280000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>92307000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>92482000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>94502000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>97312000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>91846000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>92189000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>83615000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>81590000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>79417000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>77725000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>75532000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>74648000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>54409000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>52909000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>49781000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>50134000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>48489000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>55150000</v>
+      </c>
+      <c r="E61" s="3">
         <v>56806000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>57042000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>57025000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>57554000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>61890000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>57325000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>58457000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33754000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19962000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>20298000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14859000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11363000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10657000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10487000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10507000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10471000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9782000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9780000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10055000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>10432000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9568000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9824000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14227000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14600000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18299000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20171000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20430000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21041000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23182000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23315000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24179000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24651000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24263000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24156000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24999000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>24702000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25964000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>26337000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>26248000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>26219000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>25673000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>29050000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>29305000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>29418000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>28487000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4281,8 +4429,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4352,8 +4503,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4423,79 +4577,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>151199000</v>
+      </c>
+      <c r="E66" s="3">
         <v>153551000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>161286000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>165617000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>168093000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>170452000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>173082000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>174539000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>152740000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>142242000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>136714000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>131583000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>120084000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>117020000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>115948000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>114636000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>112327000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>110706000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>89921000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>92073000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>89578000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>89180000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>86861000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4521,8 +4681,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4592,8 +4753,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4663,8 +4827,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4734,8 +4901,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4805,79 +4975,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>33189000</v>
+      </c>
+      <c r="E72" s="3">
         <v>34408000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>38551000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>38660000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>38073000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>38610000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>47029000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>47478000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>49854000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50644000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>53986000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>52819000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>58090000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>55941000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>54666000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>52303000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>52095000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>49618000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>44052000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>42222000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>42165000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>40714000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>40641000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4947,8 +5123,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5018,8 +5197,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5089,79 +5271,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-15398000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-14999000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-14440000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-16682000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-18058000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-18316000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-11821000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-11667000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9665000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-8617000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4116000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5322000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>125000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>339000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1289000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1441000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1222000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1656000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1086000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2037000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>95000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>817000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2089000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5231,155 +5419,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1219000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4143000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-109000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>587000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-537000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8420000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-449000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2376000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-628000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1166000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2942000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2147000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3422000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2361000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2196000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2474000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3318000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1808000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1749000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1577000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1631000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5405,79 +5602,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>486000</v>
+      </c>
+      <c r="E83" s="3">
         <v>534000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>523000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>551000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>536000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>578000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>565000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>547000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>556000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>628000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>576000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>546000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>521000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>583000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>523000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>507000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>501000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>582000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>522000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>494000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>471000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>546000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>474000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5547,8 +5748,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5618,8 +5822,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5689,8 +5896,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5760,8 +5970,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5831,79 +6044,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3216000</v>
+      </c>
+      <c r="E89" s="3">
         <v>716000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-262000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-483000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3387000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4009000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4819000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5280000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4302000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2220000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2424000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-590000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2788000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2947000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4559000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4680000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3136000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2903000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3396000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4949000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2098000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2832000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5929,79 +6148,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-349000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-222000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-245000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-222000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-291000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-265000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-262000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-348000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-428000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-447000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-465000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-421000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-501000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-495000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-457000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-376000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-394000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-435000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-399000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-439000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-932000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-599000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-595000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6071,8 +6294,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6142,79 +6368,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2965000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1935000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2966000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1659000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2764000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1543000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4137000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12307000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-379000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>517000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1194000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-86000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-767000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2424000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-902000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1414000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>119000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-457000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-218000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1123000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-260000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6240,8 +6472,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6267,52 +6500,55 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1158000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1157000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-1156000</v>
       </c>
       <c r="N96" s="3">
         <v>-1156000</v>
       </c>
       <c r="O96" s="3">
+        <v>-1156000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1161000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-970000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-979000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-991000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1006000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-842000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-855000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-852000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-868000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-672000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-676000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6382,8 +6618,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6453,8 +6692,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6524,217 +6766,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-396000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4362000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1171000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-48000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2681000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-468000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>22462000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10280000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1403000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4240000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2919000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2823000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-856000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3689000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4332000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2845000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2241000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3335000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3311000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2463000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1574000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2204000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-20000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-18000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>59000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>37000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>36000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-47000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>22000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-25000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-44000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>8000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>7000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>21000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>32000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>20000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-27000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-650000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1716000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1513000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1161000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-689000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2812000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9387000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4911000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5552000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-278000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>597000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2240000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-801000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-349000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-33000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1110000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>418000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>212000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-136000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>547000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-605000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-185000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>381000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>BA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,333 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16681000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13991000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14793000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15278000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16998000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15217000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15802000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14139000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11807000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16908000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20560000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19980000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21361000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22917000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>28341000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>25146000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>24258000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>23382000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>24770000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>24223000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>23051000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>21961000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>23286000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>23898000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>14559000</v>
+      </c>
+      <c r="E9" s="3">
         <v>13645000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>17307000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13566000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14588000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13808000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>20992000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13105000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12978000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16768000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18708000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16930000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>17810000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18645000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>22090000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>21040000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>19536000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>18824000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>19881000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>19956000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>18702000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>18073000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>19464000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>19904000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2122000</v>
+      </c>
+      <c r="E10" s="3">
         <v>346000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-2514000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1712000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2410000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1409000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-5190000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1034000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-1171000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>140000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1852000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3050000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3551000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4272000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6251000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4106000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4722000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4558000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4889000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4267000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4349000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3888000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3822000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3994000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1006,82 +1018,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>698000</v>
+      </c>
+      <c r="E12" s="3">
         <v>633000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>678000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>575000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>497000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>499000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>605000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>574000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>625000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>672000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>749000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>778000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>826000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>866000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>852000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>826000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>827000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>764000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>762000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>768000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>813000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>836000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>726000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>857000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1154,8 +1170,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1174,11 +1193,11 @@
       <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3">
         <v>498000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>24</v>
@@ -1186,17 +1205,17 @@
       <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="3">
         <v>2649000</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5610000</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>24</v>
@@ -1207,8 +1226,8 @@
       <c r="S14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1228,8 +1247,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1302,8 +1324,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1327,156 +1352,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>15907000</v>
+      </c>
+      <c r="E17" s="3">
         <v>15160000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18964000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14949000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15975000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15300000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23851000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14540000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14771000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18261000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22764000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18721000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>24741000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20567000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24166000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22919000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21548000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>20507000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>21792000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>21593000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>20521000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>19755000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>21103000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>21616000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>774000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1169000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4171000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>329000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1023000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-83000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8049000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-401000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2964000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1353000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2204000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1259000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3380000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2350000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4175000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2227000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2710000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2875000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2978000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2630000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2530000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2206000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2183000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2282000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1503,378 +1535,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>253000</v>
+      </c>
+      <c r="E20" s="3">
         <v>181000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>132000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>30000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>199000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>190000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>122000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>119000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>94000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>112000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>104000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>121000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>107000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>106000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>29000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>12000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-15000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>66000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>32000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>40000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>25000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>26000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1525000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-502000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3505000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>882000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1773000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>643000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7349000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>283000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2323000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-685000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1472000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1956000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2727000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2977000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4787000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2762000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3202000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3442000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3587000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3184000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3043000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2700000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2728000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2758000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>650000</v>
+      </c>
+      <c r="E22" s="3">
         <v>630000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>661000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>669000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>673000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>679000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>698000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>643000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>553000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>262000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>242000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>203000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>154000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>123000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>158000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>106000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>109000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>102000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>93000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>87000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>93000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>87000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>79000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1618000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4700000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-310000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>549000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-572000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8625000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-925000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3423000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1503000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2342000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1177000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3427000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2333000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4046000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2133000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2586000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2839000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2917000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2583000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2462000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2145000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2103000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2203000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-376000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-536000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-178000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-18000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-11000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-186000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-459000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1028000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-862000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1332000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-485000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>184000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>622000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-230000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>390000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>362000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>868000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>773000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>713000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>566000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>472000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1947,156 +1995,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1242000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4164000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-132000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>567000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-561000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8439000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-466000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2395000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-641000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1010000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1167000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2942000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2149000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3424000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2363000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2196000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2477000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2049000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1810000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1749000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1579000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1631000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2279000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1219000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4143000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-109000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>587000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-537000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8420000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-449000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2376000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-628000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1010000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1166000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2942000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2147000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3422000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2361000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2196000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2474000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2047000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1808000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1749000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1577000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1631000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2169,8 +2226,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2207,8 +2267,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2225,11 +2285,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>1271000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2243,8 +2303,11 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2317,8 +2380,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2391,156 +2457,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-253000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-181000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-132000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-30000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-199000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-190000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-122000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-119000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-94000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-112000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-104000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-121000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-107000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-106000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-29000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-12000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>15000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-66000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-32000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-40000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-25000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-26000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1219000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4143000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-109000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>587000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-537000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8420000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-449000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2376000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-628000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1166000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2942000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2147000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3422000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2361000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2196000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2474000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3318000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1808000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1749000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1577000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1631000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2613,161 +2688,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1219000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4143000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-109000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>587000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-537000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8420000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-449000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2376000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-628000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1166000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2942000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2147000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3422000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2361000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2196000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2474000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3318000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1808000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1749000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1577000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1631000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2794,8 +2878,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2822,363 +2907,376 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10090000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7409000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8052000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9764000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8271000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7059000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7752000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10564000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19992000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15039000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9485000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9763000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9167000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6836000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7637000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8034000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8121000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9235000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8813000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8569000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8737000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8190000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8801000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8986000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1358000</v>
+      </c>
+      <c r="E42" s="3">
         <v>4873000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>8192000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>10231000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>13071000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14861000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>17838000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>16552000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12438000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>488000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>545000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1150000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>439000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>893000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>927000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1956000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1649000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>656000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1179000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1463000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1589000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1015000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1228000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12549000</v>
+      </c>
+      <c r="E43" s="3">
         <v>11555000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11378000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12332000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11767000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11234000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10051000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11722000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11478000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12725000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12471000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14808000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>13709000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14217000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>14364000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>13260000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>12985000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>12868000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>11397000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>11079000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>10052000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>9915000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9260000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>9889000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>79917000</v>
+      </c>
+      <c r="E44" s="3">
         <v>79819000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>78823000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>81897000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>81799000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>82668000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>81715000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>86961000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>83745000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>80020000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>76622000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>73279000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>68492000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>65369000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>62567000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>62038000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>61250000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>61303000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>33294000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>43031000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>42453000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>43247000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>43199000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>42680000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2086000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2356000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2221000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2664000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4187000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4123000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4286000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5213000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2624000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2739000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3106000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2656000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3304000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2194000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2335000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2398000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2396000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2481000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2417000</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>24</v>
@@ -3192,304 +3290,319 @@
       <c r="Z45" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>106000000</v>
+      </c>
+      <c r="E46" s="3">
         <v>106012000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>108666000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>116888000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>119095000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>119945000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>121642000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>131012000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>130277000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>111011000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>102229000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>101656000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>95111000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>89509000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>87830000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>87686000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>86401000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>86543000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>85194000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>64142000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>62831000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>62367000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>62488000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>62237000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2523000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2572000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2670000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2758000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2748000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2875000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2952000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3062000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3120000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3240000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3472000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3438000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3525000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3663000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3749000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4270000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4315000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4296000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4513000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4665000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5032000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5202000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5446000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>5060000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10617000</v>
+      </c>
+      <c r="E48" s="3">
         <v>10755000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10918000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11113000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11341000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11643000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13072000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11969000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12182000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12405000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13684000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13705000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13665000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13602000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12645000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12571000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12605000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12628000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12672000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12712000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12820000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12842000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12807000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12713000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9622000</v>
+      </c>
+      <c r="E49" s="3">
         <v>9533000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9655000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9785000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9915000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9930000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10195000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10341000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10466000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11313000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11398000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11650000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11812000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11465000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11269000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8252000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8044000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8083000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8132000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7867000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7914000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7838000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7864000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7616000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3562,8 +3675,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3636,82 +3752,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6717000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6929000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6643000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6302000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5836000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5642000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4275000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4877000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6827000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5106000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2842000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2149000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2148000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1970000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1866000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1880000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1830000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1999000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1851000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1621000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1439000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1424000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1392000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3784,82 +3906,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>135479000</v>
+      </c>
+      <c r="E54" s="3">
         <v>135801000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>138552000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>146846000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>148935000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>150035000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>152136000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>161261000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>162872000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>143075000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>133625000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>132598000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>126261000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>120209000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>117359000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>114659000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>113195000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>113549000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>112362000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>91007000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>90036000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>89673000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>89997000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>88950000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3886,8 +4014,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3914,452 +4043,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9575000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8779000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9261000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10151000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11450000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12410000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12928000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14479000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13700000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14963000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15553000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15101000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15267000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14693000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12916000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13663000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12904000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12613000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12202000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12718000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12093000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>11964000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>11190000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>11968000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5406000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2591000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1296000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5377000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6534000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6021000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1693000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3634000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2922000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5173000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7340000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4354000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4357000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3381000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3190000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1389000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1611000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1981000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1335000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>988000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>720000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>367000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>384000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>69818000</v>
+      </c>
+      <c r="E59" s="3">
         <v>70322000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>71435000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>70243000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>70240000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>71461000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>72659000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>74194000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>75860000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>74366000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>74419000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>72391000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>72565000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>65541000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>65484000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>64365000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>63210000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>60938000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>101620000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>40703000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>40096000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>37450000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>38560000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>35889000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>84799000</v>
+      </c>
+      <c r="E60" s="3">
         <v>81692000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>81992000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>85771000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>88224000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>89892000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>87280000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>92307000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>92482000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>94502000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>97312000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>91846000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>92189000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>83615000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>81590000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>79417000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>77725000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>75532000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>74648000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>54409000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>52909000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>49781000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>50134000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>48489000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>51794000</v>
+      </c>
+      <c r="E61" s="3">
         <v>55150000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>56806000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>57042000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>57025000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>57554000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>61890000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>57325000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>58457000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33754000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19962000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>20298000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14859000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11363000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10657000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10487000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10507000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10471000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9782000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9780000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>10055000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>10432000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9568000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9824000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13677000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14227000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14600000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18299000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20171000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20430000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21041000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23182000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23315000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24179000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24651000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24263000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24156000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>24999000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>24702000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25964000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>26337000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>26248000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>26219000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>25673000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>29050000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>29305000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>29418000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>28487000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4432,8 +4580,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4506,8 +4657,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4580,82 +4734,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>150367000</v>
+      </c>
+      <c r="E66" s="3">
         <v>151199000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>153551000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>161286000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>165617000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>168093000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>170452000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>173082000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>174539000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>152740000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>142242000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>136714000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>131583000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>120084000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>117020000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>115948000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>114636000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>112327000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>110706000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>89921000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>92073000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>89578000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>89180000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>86861000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4682,8 +4842,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4756,8 +4917,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4830,8 +4994,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4904,8 +5071,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4978,82 +5148,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>33382000</v>
+      </c>
+      <c r="E72" s="3">
         <v>33189000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>34408000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>38551000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>38660000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>38073000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>38610000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>47029000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47478000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>49854000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50644000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>53986000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>52819000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>58090000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>55941000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>54666000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>52303000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>52095000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>49618000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>44052000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>42222000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>42165000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>40714000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>40641000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5126,8 +5302,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5200,8 +5379,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5274,82 +5456,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-14888000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-15398000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-14999000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-14440000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-16682000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-18058000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-18316000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-11821000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-11667000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-9665000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-8617000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4116000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5322000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>125000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>339000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1289000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1441000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1222000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1656000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1086000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2037000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>95000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>817000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2089000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5422,161 +5610,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1219000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4143000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-109000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>587000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-537000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8420000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-449000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2376000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-628000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1166000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2942000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2147000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3422000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2361000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2196000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2474000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3318000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1808000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1749000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1577000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1631000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5603,82 +5800,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>498000</v>
+      </c>
+      <c r="E83" s="3">
         <v>486000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>534000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>523000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>551000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>536000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>578000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>565000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>547000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>556000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>628000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>576000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>546000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>521000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>583000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>523000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>507000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>501000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>582000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>522000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>494000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>471000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>546000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>474000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5751,8 +5952,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5825,8 +6029,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5899,8 +6106,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5973,8 +6183,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6047,82 +6260,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3216000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>716000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-262000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-483000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3387000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4009000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4819000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5280000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4302000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2220000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2424000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-590000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2788000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2947000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4559000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4680000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3136000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2903000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3396000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4949000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2098000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2832000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6149,82 +6368,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-263000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-349000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-222000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-245000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-222000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-291000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-265000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-262000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-348000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-428000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-447000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-465000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-421000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-501000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-495000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-457000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-376000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-394000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-435000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-399000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-439000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-932000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-599000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-595000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6297,8 +6520,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6371,82 +6597,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3266000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2965000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1935000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2966000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1659000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2764000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1543000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4137000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12307000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-379000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>517000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1194000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-86000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-767000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2424000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-902000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1414000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>119000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-457000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-218000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1123000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-260000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6473,8 +6705,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6503,52 +6736,55 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1158000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1157000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-1156000</v>
       </c>
       <c r="O96" s="3">
         <v>-1156000</v>
       </c>
       <c r="P96" s="3">
+        <v>-1156000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1161000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-970000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-979000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-991000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1006000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-842000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-855000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-852000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-868000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-672000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-676000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6621,8 +6857,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6695,8 +6934,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6769,226 +7011,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-602000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-396000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4362000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1171000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-48000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2681000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-468000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>22462000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10280000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1403000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4240000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2919000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2823000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-856000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3689000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4332000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2845000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2241000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3335000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3311000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2463000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1574000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2204000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-20000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-18000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>59000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>37000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>36000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-47000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>22000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-25000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-16000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-44000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>8000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>7000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>21000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>32000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>20000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-27000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2677000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-650000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1716000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1513000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1161000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-689000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2812000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9387000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4911000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5552000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-278000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>597000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2240000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-801000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-349000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-33000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1110000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>418000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>212000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-136000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>547000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-605000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-185000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>381000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>BA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,345 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15956000</v>
+      </c>
+      <c r="E8" s="3">
         <v>16681000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13991000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14793000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15278000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16998000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15217000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15802000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14139000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11807000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16908000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20560000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19980000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21361000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>22917000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>28341000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>25146000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>24258000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>23382000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>24770000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>24223000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>23051000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>21961000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>23286000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>23898000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16778000</v>
+      </c>
+      <c r="E9" s="3">
         <v>14559000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13645000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>17307000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13566000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14588000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13808000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>20992000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13105000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12978000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16768000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18708000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16930000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>17810000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>18645000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>22090000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>21040000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>19536000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>18824000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>19881000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>19956000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>18702000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>18073000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>19464000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>19904000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-822000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2122000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>346000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-2514000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1712000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2410000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1409000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-5190000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1034000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-1171000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>140000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1852000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3050000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3551000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4272000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6251000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4106000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4722000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4558000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4889000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4267000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4349000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3888000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3822000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3994000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,85 +1031,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>727000</v>
+      </c>
+      <c r="E12" s="3">
         <v>698000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>633000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>678000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>575000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>497000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>499000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>605000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>574000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>625000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>672000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>749000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>778000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>826000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>866000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>852000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>826000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>827000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>764000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>762000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>768000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>813000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>836000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>726000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>857000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1173,8 +1189,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1196,11 +1215,11 @@
       <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="3">
         <v>498000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>24</v>
@@ -1208,17 +1227,17 @@
       <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="3">
         <v>2649000</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5610000</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>24</v>
@@ -1229,8 +1248,8 @@
       <c r="T14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1250,8 +1269,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1327,8 +1349,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1353,162 +1378,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>18755000</v>
+      </c>
+      <c r="E17" s="3">
         <v>15907000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15160000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18964000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14949000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15975000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15300000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23851000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14540000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14771000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18261000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22764000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18721000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>24741000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20567000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24166000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22919000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21548000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>20507000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>21792000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>21593000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>20521000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>19755000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>21103000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>21616000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-2799000</v>
+      </c>
+      <c r="E18" s="3">
         <v>774000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1169000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4171000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>329000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1023000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-83000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8049000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-401000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2964000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1353000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2204000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1259000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3380000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2350000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4175000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2227000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2710000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2875000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2978000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2630000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2530000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2206000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2183000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2282000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1536,393 +1568,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>288000</v>
+      </c>
+      <c r="E20" s="3">
         <v>253000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>181000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>132000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>30000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>199000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>190000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>122000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>119000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>94000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>112000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>104000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>121000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>107000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>106000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>29000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>12000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-15000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>66000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>32000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>40000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>25000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>26000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-2018000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1525000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-502000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3505000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>882000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1773000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>643000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7349000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>283000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2323000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-685000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1472000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1956000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2727000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2977000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4787000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2762000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3202000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3442000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3587000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3184000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3043000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2700000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2728000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2758000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>621000</v>
+      </c>
+      <c r="E22" s="3">
         <v>650000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>630000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>661000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>669000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>673000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>679000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>698000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>643000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>553000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>262000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>242000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>203000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>154000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>123000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>158000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>106000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>109000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>102000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>93000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>87000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>93000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>87000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>79000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-3132000</v>
+      </c>
+      <c r="E23" s="3">
         <v>377000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1618000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4700000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-310000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>549000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-572000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8625000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-925000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3423000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1503000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2342000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1177000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3427000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2333000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4046000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2133000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2586000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2839000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2917000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2583000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2462000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2145000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2103000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2203000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E24" s="3">
         <v>217000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-376000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-536000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-178000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-18000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-186000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-459000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1028000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-862000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1332000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-485000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>184000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>622000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-230000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>390000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>362000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>868000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>773000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>713000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>566000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>472000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1998,162 +2046,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-3308000</v>
+      </c>
+      <c r="E26" s="3">
         <v>160000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1242000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4164000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-132000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>567000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-561000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8439000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-466000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2395000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-641000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1010000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1167000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2942000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2149000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3424000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2363000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2196000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2477000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2049000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1810000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1749000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1579000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1631000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2279000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-3275000</v>
+      </c>
+      <c r="E27" s="3">
         <v>193000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1219000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4143000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-109000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>587000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-537000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8420000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-449000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2376000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-628000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1010000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1166000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2942000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2147000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3422000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2361000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2196000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2474000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2047000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1808000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1749000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1577000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1631000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2229,8 +2286,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2270,8 +2330,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -2288,11 +2348,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>1271000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2306,8 +2366,11 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2383,8 +2446,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2460,162 +2526,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-288000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-253000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-181000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-132000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-30000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-199000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-190000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-122000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-119000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-94000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-112000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-104000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-121000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-107000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-106000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-29000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-12000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>15000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-66000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-32000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-40000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-25000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-26000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3275000</v>
+      </c>
+      <c r="E33" s="3">
         <v>193000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1219000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4143000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-109000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>587000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-537000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8420000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-449000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2376000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-628000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1166000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2942000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2147000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3422000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2361000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2196000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2474000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3318000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1808000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1749000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1577000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1631000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2691,167 +2766,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3275000</v>
+      </c>
+      <c r="E35" s="3">
         <v>193000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1219000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4143000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-109000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>587000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-537000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8420000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-449000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2376000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-628000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1166000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2942000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2147000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3422000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2361000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2196000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2474000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3318000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1808000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1749000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1577000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1631000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2879,8 +2963,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2908,378 +2993,391 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13494000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10090000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7409000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8052000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9764000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8271000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7059000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7752000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10564000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19992000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15039000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9485000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9763000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9167000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6836000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7637000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8034000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8121000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9235000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8813000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8569000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8737000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8190000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8801000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8986000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>763000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1358000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4873000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>8192000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>10231000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>13071000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14861000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>17838000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16552000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12438000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>488000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>545000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1150000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>439000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>893000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>927000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1956000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1649000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>656000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1179000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1463000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1589000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1015000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1228000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12144000</v>
+      </c>
+      <c r="E43" s="3">
         <v>12549000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11555000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11378000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12332000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11767000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11234000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10051000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11722000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11478000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12725000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12471000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14808000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>13709000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>14217000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>14364000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>13260000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>12985000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>12868000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>11397000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>11079000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>10052000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>9915000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>9260000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>9889000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>79777000</v>
+      </c>
+      <c r="E44" s="3">
         <v>79917000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>79819000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>78823000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>81897000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>81799000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>82668000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>81715000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>86961000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>83745000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>80020000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>76622000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>73279000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>68492000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>65369000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>62567000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>62038000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>61250000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>61303000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>33294000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>43031000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>42453000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>43247000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>43199000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>42680000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3073000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2086000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2356000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2221000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2664000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4187000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4123000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4286000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5213000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2624000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2739000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3106000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2656000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3304000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2194000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2335000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2398000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2396000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2481000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2417000</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>24</v>
@@ -3293,316 +3391,331 @@
       <c r="AA45" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>109251000</v>
+      </c>
+      <c r="E46" s="3">
         <v>106000000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>106012000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>108666000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>116888000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>119095000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>119945000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>121642000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>131012000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>130277000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>111011000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>102229000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>101656000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>95111000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>89509000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>87830000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>87686000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>86401000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>86543000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>85194000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>64142000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>62831000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>62367000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>62488000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>62237000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2492000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2523000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2572000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2670000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2758000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2748000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2875000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2952000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3062000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3120000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3240000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3472000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3438000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3525000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3663000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3749000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4270000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4315000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4296000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4513000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4665000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5032000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5202000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>5446000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>5060000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10508000</v>
+      </c>
+      <c r="E48" s="3">
         <v>10617000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10755000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10918000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11113000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11341000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11643000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13072000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11969000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12182000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12405000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13684000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13705000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13665000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13602000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12645000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12571000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12605000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12628000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12672000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12712000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12820000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12842000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12807000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12713000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9519000</v>
+      </c>
+      <c r="E49" s="3">
         <v>9622000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9533000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9655000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9785000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9915000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9930000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10195000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10341000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10466000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11313000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11398000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11650000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11812000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11465000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11269000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8252000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8044000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8083000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>8132000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7867000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7914000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7838000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7864000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>7616000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3678,8 +3791,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3755,85 +3871,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5788000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6717000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6929000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6643000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6302000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5836000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5642000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4275000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4877000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6827000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5106000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2842000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2149000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2148000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1970000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1866000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1880000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1830000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1999000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1851000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1621000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1439000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1424000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1392000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3909,85 +4031,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>137558000</v>
+      </c>
+      <c r="E54" s="3">
         <v>135479000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>135801000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>138552000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>146846000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>148935000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>150035000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>152136000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>161261000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>162872000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>143075000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>133625000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>132598000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>126261000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>120209000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>117359000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>114659000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>113195000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>113549000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>112362000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>91007000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>90036000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>89673000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>89997000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>88950000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4015,8 +4143,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4044,470 +4173,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9793000</v>
+      </c>
+      <c r="E57" s="3">
         <v>9575000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8779000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9261000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10151000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11450000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12410000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12928000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14479000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13700000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14963000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15553000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15101000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15267000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14693000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12916000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13663000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12904000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12613000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12202000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12718000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12093000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>11964000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>11190000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>11968000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5431000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5406000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2591000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1296000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5377000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6534000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6021000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1693000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3634000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2922000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5173000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7340000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4354000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4357000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3381000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3190000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1389000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1611000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1981000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1335000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>988000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>720000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>367000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>384000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>74394000</v>
+      </c>
+      <c r="E59" s="3">
         <v>69818000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>70322000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>71435000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>70243000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>70240000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>71461000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>72659000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>74194000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>75860000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>74366000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>74419000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>72391000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>72565000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>65541000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>65484000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>64365000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>63210000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>60938000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>101620000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>40703000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>40096000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>37450000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>38560000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>35889000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>89618000</v>
+      </c>
+      <c r="E60" s="3">
         <v>84799000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>81692000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>81992000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>85771000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>88224000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>89892000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>87280000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>92307000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>92482000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>94502000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>97312000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>91846000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>92189000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>83615000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>81590000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>79417000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>77725000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>75532000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>74648000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>54409000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>52909000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>49781000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>50134000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>48489000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>51788000</v>
+      </c>
+      <c r="E61" s="3">
         <v>51794000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>55150000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>56806000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>57042000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>57025000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>57554000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>61890000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>57325000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>58457000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33754000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19962000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>20298000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14859000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11363000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10657000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10487000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10507000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10471000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9782000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9780000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>10055000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>10432000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9568000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9824000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13787000</v>
+      </c>
+      <c r="E62" s="3">
         <v>13677000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14227000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14600000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18299000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20171000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20430000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>21041000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23182000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23315000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24179000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24651000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24263000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>24156000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>24999000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>24702000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>25964000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>26337000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>26248000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>26219000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>25673000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>29050000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>29305000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>29418000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>28487000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4583,8 +4731,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4660,8 +4811,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4737,85 +4891,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>155257000</v>
+      </c>
+      <c r="E66" s="3">
         <v>150367000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>151199000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>153551000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>161286000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>165617000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>168093000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>170452000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>173082000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>174539000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>152740000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>142242000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>136714000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>131583000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>120084000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>117020000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>115948000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>114636000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>112327000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>110706000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>89921000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>92073000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>89578000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>89180000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>86861000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4843,8 +5003,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4920,8 +5081,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4997,8 +5161,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5074,8 +5241,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5151,85 +5321,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>30107000</v>
+      </c>
+      <c r="E72" s="3">
         <v>33382000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>33189000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>34408000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>38551000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>38660000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>38073000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>38610000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47029000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>47478000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>49854000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50644000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>53986000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>52819000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>58090000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>55941000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>54666000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>52303000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>52095000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>49618000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>44052000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>42222000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>42165000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>40714000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>40641000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5305,8 +5481,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5382,8 +5561,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5459,85 +5641,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-17699000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-14888000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-15398000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-14999000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-14440000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-16682000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-18058000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-18316000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-11821000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-11667000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-9665000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-8617000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4116000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5322000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>125000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>339000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1289000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1441000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1222000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1656000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1086000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2037000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>95000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>817000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2089000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5613,167 +5801,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3275000</v>
+      </c>
+      <c r="E81" s="3">
         <v>193000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1219000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4143000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-109000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>587000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-537000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8420000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-449000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2376000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-628000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1166000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2942000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2147000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3422000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2361000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2196000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2474000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3318000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1808000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1749000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1577000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1631000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5801,85 +5998,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>493000</v>
+      </c>
+      <c r="E83" s="3">
         <v>498000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>486000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>534000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>523000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>551000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>536000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>578000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>565000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>547000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>556000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>628000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>576000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>546000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>521000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>583000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>523000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>507000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>501000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>582000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>522000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>494000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>471000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>546000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>474000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5955,8 +6156,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6032,8 +6236,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6109,8 +6316,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6186,8 +6396,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6263,85 +6476,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3190000</v>
+      </c>
+      <c r="E89" s="3">
         <v>81000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3216000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>716000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-262000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-483000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3387000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4009000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4819000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5280000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4302000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2220000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2424000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-590000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2788000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2947000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4559000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4680000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3136000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2903000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3396000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4949000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2098000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2832000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6369,85 +6588,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-284000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-263000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-349000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-222000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-245000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-222000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-291000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-265000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-262000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-348000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-428000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-447000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-465000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-421000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-501000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-495000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-457000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-376000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-394000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-435000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-399000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-439000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-932000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-599000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-595000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6523,8 +6746,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6600,85 +6826,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E94" s="3">
         <v>3266000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2965000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1935000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2966000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1659000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2764000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1543000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4137000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12307000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-379000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>517000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1194000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-86000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-767000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2424000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-902000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1414000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>119000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-457000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-218000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1123000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-260000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6706,8 +6938,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6739,52 +6972,55 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1158000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1157000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1156000</v>
       </c>
       <c r="P96" s="3">
         <v>-1156000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-1156000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1161000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-970000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-979000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-991000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1006000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-842000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-855000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-852000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-868000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-672000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-676000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6860,8 +7096,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6937,8 +7176,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7014,235 +7256,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-602000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-396000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4362000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1171000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-48000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2681000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-468000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>22462000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10280000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1403000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4240000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2919000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2823000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-856000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3689000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4332000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2845000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2241000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3335000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3311000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2463000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1574000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2204000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-68000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-20000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-18000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>59000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>37000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>36000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-47000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>22000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-25000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-16000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-44000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>8000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>7000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>21000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>32000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>20000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-27000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3399000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2677000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-650000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1716000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1513000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1161000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-689000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2812000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9387000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4911000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5552000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-278000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>597000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2240000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-801000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-349000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-33000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1110000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>418000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>212000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-136000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>547000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-605000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-185000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>381000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>BA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,345 +665,357 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>19980000</v>
+      </c>
+      <c r="E8" s="3">
         <v>15956000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16681000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13991000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14793000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15278000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16998000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15217000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15802000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14139000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11807000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16908000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20560000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19980000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21361000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>22917000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>28341000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>25146000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>24258000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>23382000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>24770000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>24223000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>23051000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>21961000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>23286000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>23898000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>18124000</v>
+      </c>
+      <c r="E9" s="3">
         <v>16778000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14559000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13645000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>17307000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13566000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14588000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13808000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20992000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13105000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12978000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16768000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18708000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16930000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>17810000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>18645000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>22090000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>21040000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>19536000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>18824000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>19881000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>19956000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>18702000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>18073000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>19464000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>19904000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1856000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-822000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2122000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>346000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-2514000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1712000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2410000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1409000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-5190000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1034000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-1171000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>140000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1852000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3050000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3551000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4272000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6251000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4106000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4722000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4558000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4889000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4267000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4349000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3888000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3822000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3994000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,88 +1044,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>794000</v>
+      </c>
+      <c r="E12" s="3">
         <v>727000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>698000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>633000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>678000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>575000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>497000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>499000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>605000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>574000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>625000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>672000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>749000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>778000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>826000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>866000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>852000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>826000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>827000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>764000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>762000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>768000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>813000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>836000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>726000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>857000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1192,8 +1208,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1218,11 +1237,11 @@
       <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="3">
         <v>498000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>24</v>
@@ -1230,17 +1249,17 @@
       <c r="N14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="3">
         <v>2649000</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5610000</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>24</v>
@@ -1251,8 +1270,8 @@
       <c r="U14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1272,8 +1291,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1352,8 +1374,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1379,168 +1404,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>20333000</v>
+      </c>
+      <c r="E17" s="3">
         <v>18755000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15907000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15160000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18964000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14949000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15975000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15300000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23851000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14540000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14771000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18261000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22764000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18721000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>24741000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20567000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24166000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22919000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>21548000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>20507000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>21792000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>21593000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>20521000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>19755000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>21103000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>21616000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-353000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2799000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>774000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1169000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4171000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>329000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1023000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-83000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8049000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-401000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2964000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1353000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2204000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1259000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3380000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2350000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4175000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2227000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2710000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2875000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2978000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2630000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2530000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2206000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2183000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2282000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1569,408 +1601,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E20" s="3">
         <v>288000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>253000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>181000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>132000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>30000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>199000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>190000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>122000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>119000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>94000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>112000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>104000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>121000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>107000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>106000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>29000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>12000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-15000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>66000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>32000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>40000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>25000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>26000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>485000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2018000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1525000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-502000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3505000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>882000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1773000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>643000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7349000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>283000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2323000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-685000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1472000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1956000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2727000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2977000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4787000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2762000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3202000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3442000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3587000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3184000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3043000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2700000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2728000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2758000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>632000</v>
+      </c>
+      <c r="E22" s="3">
         <v>621000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>650000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>630000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>661000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>669000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>673000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>679000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>698000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>643000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>553000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>262000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>242000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>203000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>154000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>123000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>158000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>106000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>109000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>102000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>93000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>87000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>93000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>87000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>79000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-649000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3132000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>377000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1618000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4700000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-310000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>549000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-572000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8625000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-925000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3423000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1503000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2342000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1177000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3427000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2333000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4046000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2133000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2586000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2839000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2917000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2583000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2462000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2145000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2103000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2203000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E24" s="3">
         <v>176000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>217000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-376000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-536000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-539000</v>
+      </c>
+      <c r="I24" s="3">
         <v>-178000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-18000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-186000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-459000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1028000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-862000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1332000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-485000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>184000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>622000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-230000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>390000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>362000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>868000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>773000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>713000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>566000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>472000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2049,168 +2097,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-668000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3308000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>160000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1242000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-4164000</v>
-      </c>
       <c r="H26" s="3">
+        <v>-4161000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-132000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>567000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-561000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8439000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-466000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2395000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-641000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1010000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1167000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2942000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2149000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3424000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2363000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2196000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2477000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2049000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1810000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1749000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1579000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1631000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2279000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-639000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3275000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>193000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1219000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-4143000</v>
-      </c>
       <c r="H27" s="3">
+        <v>-4140000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-109000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>587000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-537000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8420000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-449000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2376000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-628000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1010000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1166000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2942000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2147000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3422000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2361000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2196000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2474000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2047000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1808000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1749000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1577000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1631000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2289,31 +2346,34 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>5000</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-3000</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2333,8 +2393,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -2351,11 +2411,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="3">
         <v>1271000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2369,8 +2429,11 @@
       <c r="AB29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2449,8 +2512,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2529,168 +2595,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-336000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-288000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-253000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-181000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-132000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-30000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-199000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-190000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-122000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-119000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-94000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-112000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-104000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-121000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-107000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-106000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-29000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-12000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>15000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-66000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-32000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-40000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-25000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-26000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-634000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3275000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>193000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1219000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4143000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-109000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>587000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-537000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8420000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-449000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2376000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-628000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1166000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2942000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2147000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3422000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2361000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2196000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2474000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3318000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1808000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1749000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1577000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1631000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2769,173 +2844,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-634000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3275000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>193000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1219000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4143000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-109000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>587000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-537000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8420000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-449000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2376000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-628000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1166000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2942000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2147000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3422000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2361000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2196000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2474000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3318000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1808000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1749000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1577000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1631000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2964,8 +3048,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2994,393 +3079,406 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14614000</v>
+      </c>
+      <c r="E41" s="3">
         <v>13494000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10090000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7409000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8052000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9764000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8271000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7059000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7752000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10564000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19992000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15039000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9485000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9763000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9167000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6836000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7637000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8034000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8121000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9235000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8813000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8569000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8737000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8190000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8801000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8986000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2606000</v>
+      </c>
+      <c r="E42" s="3">
         <v>763000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1358000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4873000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>8192000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>10231000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>13071000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14861000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>17838000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16552000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12438000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>488000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>545000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1150000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>439000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>893000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>927000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1956000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1649000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>656000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1179000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1463000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1589000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1015000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1228000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11305000</v>
+      </c>
+      <c r="E43" s="3">
         <v>12144000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12549000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11555000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11378000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12332000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11767000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11234000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10051000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11722000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11478000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12725000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12471000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14808000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>13709000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>14217000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>14364000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>13260000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>12985000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>12868000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>11397000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>11079000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>10052000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>9915000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>9260000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>9889000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>78151000</v>
+      </c>
+      <c r="E44" s="3">
         <v>79777000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>79917000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>79819000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>78823000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>81897000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>81799000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>82668000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>81715000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>86961000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>83745000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>80020000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>76622000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>73279000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>68492000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>65369000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>62567000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>62038000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>61250000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>61303000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>33294000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>43031000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>42453000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>43247000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>43199000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>42680000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2847000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3073000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2086000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2356000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2221000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2664000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4187000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4123000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4286000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5213000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2624000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2739000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3106000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2656000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3304000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2194000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2335000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2398000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2396000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2481000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2417000</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>24</v>
@@ -3394,328 +3492,343 @@
       <c r="AB45" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>109523000</v>
+      </c>
+      <c r="E46" s="3">
         <v>109251000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>106000000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>106012000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>108666000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>116888000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>119095000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>119945000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>121642000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>131012000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>130277000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>111011000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>102229000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>101656000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>95111000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>89509000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>87830000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>87686000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>86401000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>86543000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>85194000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>64142000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>62831000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>62367000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>62488000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>62237000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2433000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2492000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2523000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2572000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2670000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2758000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2748000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2875000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2952000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3062000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3120000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3240000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3472000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3438000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3525000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3663000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3749000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4270000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4315000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4296000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4513000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4665000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5032000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>5202000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>5446000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>5060000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10550000</v>
+      </c>
+      <c r="E48" s="3">
         <v>10508000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10617000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10755000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10918000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11113000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11341000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11643000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13072000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11969000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12182000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12405000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13684000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13705000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13665000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13602000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12645000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12571000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12605000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12628000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12672000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12712000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12820000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12842000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12807000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>12713000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9419000</v>
+      </c>
+      <c r="E49" s="3">
         <v>9519000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9622000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9533000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9655000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9785000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9915000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9930000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10195000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10341000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10466000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11313000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11398000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11650000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11812000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11465000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11269000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8252000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8044000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>8083000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>8132000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7867000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7914000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7838000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>7864000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>7616000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3794,8 +3907,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3874,88 +3990,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5175000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5788000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6717000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6929000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6643000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6302000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5836000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5642000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4275000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4877000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6827000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5106000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2842000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2149000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2148000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1970000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1866000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1880000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1830000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1999000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1851000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1621000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1439000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1424000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1392000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4034,88 +4156,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>137100000</v>
+      </c>
+      <c r="E54" s="3">
         <v>137558000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>135479000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>135801000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>138552000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>146846000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>148935000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>150035000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>152136000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>161261000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>162872000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>143075000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>133625000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>132598000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>126261000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>120209000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>117359000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>114659000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>113195000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>113549000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>112362000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>91007000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>90036000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>89673000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>89997000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>88950000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4144,8 +4272,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4174,488 +4303,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10200000</v>
+      </c>
+      <c r="E57" s="3">
         <v>9793000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9575000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8779000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9261000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10151000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11450000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12410000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12928000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14479000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13700000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14963000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15553000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15101000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15267000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14693000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12916000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13663000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12904000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12613000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12202000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12718000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>12093000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>11964000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>11190000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>11968000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5190000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5431000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5406000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2591000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1296000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5377000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6534000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6021000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1693000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3634000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2922000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5173000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7340000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4354000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4357000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3381000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3190000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1389000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1611000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1981000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1335000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>988000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>720000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>367000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>384000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>74662000</v>
+      </c>
+      <c r="E59" s="3">
         <v>74394000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>69818000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>70322000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>71435000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>70243000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>70240000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>71461000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>72659000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>74194000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>75860000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>74366000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>74419000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>72391000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>72565000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>65541000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>65484000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>64365000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>63210000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>60938000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>101620000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>40703000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>40096000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>37450000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>38560000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>35889000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>90052000</v>
+      </c>
+      <c r="E60" s="3">
         <v>89618000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>84799000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>81692000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>81992000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>85771000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>88224000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>89892000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>87280000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>92307000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>92482000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>94502000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>97312000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>91846000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>92189000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>83615000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>81590000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>79417000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>77725000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>75532000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>74648000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>54409000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>52909000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>49781000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>50134000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>48489000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>51811000</v>
+      </c>
+      <c r="E61" s="3">
         <v>51788000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>51794000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>55150000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>56806000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>57042000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>57025000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>57554000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>61890000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>57325000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>58457000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>33754000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19962000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>20298000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14859000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11363000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10657000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10487000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10507000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10471000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9782000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9780000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>10055000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>10432000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9568000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>9824000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11085000</v>
+      </c>
+      <c r="E62" s="3">
         <v>13787000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13677000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14227000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14600000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18299000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20171000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>20430000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21041000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23182000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23315000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24179000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24651000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>24263000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>24156000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>24999000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>24702000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>25964000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>26337000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>26248000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>26219000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>25673000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>29050000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>29305000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>29418000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>28487000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4734,8 +4882,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4814,8 +4965,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4894,88 +5048,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>152983000</v>
+      </c>
+      <c r="E66" s="3">
         <v>155257000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>150367000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>151199000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>153551000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>161286000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>165617000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>168093000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>170452000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>173082000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>174539000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>152740000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>142242000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>136714000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>131583000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>120084000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>117020000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>115948000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>114636000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>112327000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>110706000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>89921000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>92073000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>89578000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>89180000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>86861000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5004,8 +5164,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5084,8 +5245,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5164,8 +5328,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5244,8 +5411,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5324,88 +5494,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>29473000</v>
+      </c>
+      <c r="E72" s="3">
         <v>30107000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>33382000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>33189000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>34408000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>38551000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>38660000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>38073000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>38610000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>47029000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>47478000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>49854000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>50644000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>53986000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>52819000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>58090000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>55941000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>54666000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>52303000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>52095000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>49618000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>44052000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>42222000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>42165000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>40714000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>40641000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5484,8 +5660,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5564,8 +5743,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5644,88 +5826,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-15883000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-17699000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-14888000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-15398000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-14999000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-14440000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-16682000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-18058000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-18316000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-11821000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-11667000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-9665000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-8617000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4116000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5322000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>125000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>339000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1289000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1441000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1222000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1656000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1086000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2037000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>95000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>817000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2089000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5804,173 +5992,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-634000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3275000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>193000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1219000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4143000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-109000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>587000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-537000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8420000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-449000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2376000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-628000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1166000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2942000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2147000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3422000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2361000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2196000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2474000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3318000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1808000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1749000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1577000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1631000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5999,88 +6196,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E83" s="3">
         <v>493000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>498000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>486000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>534000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>523000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>551000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>536000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>578000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>565000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>547000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>556000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>628000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>576000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>546000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>521000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>583000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>523000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>507000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>501000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>582000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>522000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>494000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>471000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>546000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>474000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6159,8 +6360,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6239,8 +6443,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6319,8 +6526,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6399,8 +6609,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6479,88 +6692,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3457000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3190000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>81000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3216000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>716000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-262000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-483000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3387000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4009000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4819000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5280000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4302000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2220000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2424000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-590000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2788000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2947000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4559000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4680000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3136000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2903000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3396000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4949000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2098000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2832000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6589,88 +6808,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-326000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-284000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-263000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-349000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-222000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-245000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-222000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-291000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-265000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-262000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-348000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-428000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-447000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-465000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-421000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-501000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-495000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-457000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-376000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-394000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-435000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-399000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-439000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-932000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-599000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-595000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6749,8 +6972,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6829,88 +7055,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2151000</v>
+      </c>
+      <c r="E94" s="3">
         <v>290000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3266000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2965000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1935000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2966000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1659000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2764000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1543000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4137000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12307000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-379000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>517000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1194000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-86000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-767000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2424000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-902000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1414000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>119000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-457000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-218000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1123000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-260000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6939,8 +7171,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6975,52 +7208,55 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1158000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1157000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1156000</v>
       </c>
       <c r="Q96" s="3">
         <v>-1156000</v>
       </c>
       <c r="R96" s="3">
+        <v>-1156000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1161000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-970000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-979000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-991000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1006000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-842000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-855000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-852000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-868000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-672000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-676000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7099,8 +7335,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7179,8 +7418,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7259,244 +7501,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-250000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-18000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-602000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-396000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4362000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1171000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-48000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2681000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-468000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>22462000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>10280000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1403000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4240000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2919000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2823000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-856000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3689000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4332000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2845000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2241000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3335000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3311000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2463000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1574000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2204000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-63000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-68000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-20000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-18000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>59000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>37000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>36000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-47000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>22000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-16000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-44000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>8000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>7000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>21000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>32000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>20000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-27000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1117000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3399000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2677000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-650000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1716000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1513000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1161000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-689000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2812000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9387000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4911000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5552000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-278000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>597000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2240000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-801000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-349000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-33000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1110000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>418000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>212000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-136000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>547000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-605000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-185000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>381000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>BA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,357 +665,369 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17921000</v>
+      </c>
+      <c r="E8" s="3">
         <v>19980000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15956000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16681000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13991000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14793000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15278000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16998000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15217000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15802000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14139000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11807000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16908000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20560000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19980000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>21361000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>22917000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>28341000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>25146000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>24258000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>23382000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>24770000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>24223000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>23051000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>21961000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>23286000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>23898000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15998000</v>
+      </c>
+      <c r="E9" s="3">
         <v>18124000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16778000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14559000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13645000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17307000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13566000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14588000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13808000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20992000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13105000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12978000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16768000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18708000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16930000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>17810000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>18645000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>22090000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>21040000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>19536000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>18824000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>19881000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>19956000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>18702000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>18073000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>19464000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>19904000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1923000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1856000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-822000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2122000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>346000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-2514000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1712000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2410000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1409000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-5190000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1034000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-1171000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>140000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1852000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3050000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3551000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4272000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6251000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4106000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4722000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4558000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4889000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4267000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4349000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3888000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3822000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3994000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1045,91 +1057,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>741000</v>
+      </c>
+      <c r="E12" s="3">
         <v>794000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>727000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>698000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>633000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>678000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>575000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>497000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>499000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>605000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>574000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>625000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>672000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>749000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>778000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>826000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>866000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>852000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>826000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>827000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>764000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>762000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>768000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>813000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>836000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>726000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>857000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1211,8 +1227,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1240,11 +1259,11 @@
       <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="3">
         <v>498000</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>24</v>
@@ -1252,17 +1271,17 @@
       <c r="O14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2649000</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5610000</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>24</v>
@@ -1273,8 +1292,8 @@
       <c r="V14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1294,8 +1313,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1377,8 +1399,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1405,174 +1430,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>18070000</v>
+      </c>
+      <c r="E17" s="3">
         <v>20333000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18755000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15907000</v>
       </c>
-      <c r="G17" s="3">
-        <v>15160000</v>
-      </c>
       <c r="H17" s="3">
+        <v>15153000</v>
+      </c>
+      <c r="I17" s="3">
         <v>18964000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14949000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15975000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15300000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23851000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14540000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14771000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18261000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22764000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18721000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>24741000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>20567000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>24166000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>22919000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>21548000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>20507000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>21792000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>21593000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>20521000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>19755000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>21103000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>21616000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-353000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2799000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>774000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-1169000</v>
-      </c>
       <c r="H18" s="3">
+        <v>-1162000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-4171000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>329000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1023000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-83000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8049000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-401000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2964000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1353000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2204000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1259000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3380000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2350000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4175000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2227000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2710000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2875000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2978000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2630000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2530000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2206000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2183000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2282000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1602,423 +1634,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E20" s="3">
         <v>336000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>288000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>253000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>181000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>132000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>30000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>199000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>190000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>122000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>119000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>94000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>112000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>104000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>121000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>107000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>106000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>29000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>12000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-15000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>66000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>32000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>40000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>25000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>26000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>610000</v>
+      </c>
+      <c r="E21" s="3">
         <v>485000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2018000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1525000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-502000</v>
-      </c>
       <c r="H21" s="3">
+        <v>-495000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-3505000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>882000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1773000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>643000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7349000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>283000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2323000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-685000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1472000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1956000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2727000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2977000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4787000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2762000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3202000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3442000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3587000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3184000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3043000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2700000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2728000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2758000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>649000</v>
+      </c>
+      <c r="E22" s="3">
         <v>632000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>621000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>650000</v>
       </c>
-      <c r="G22" s="3">
-        <v>630000</v>
-      </c>
       <c r="H22" s="3">
+        <v>637000</v>
+      </c>
+      <c r="I22" s="3">
         <v>661000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>669000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>673000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>679000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>698000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>643000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>553000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>262000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>242000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>203000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>154000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>123000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>158000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>106000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>109000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>102000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>93000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>87000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>93000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>87000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>79000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-496000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-649000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3132000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>377000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1618000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4700000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-310000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>549000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-572000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8625000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-925000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3423000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1503000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2342000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1177000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3427000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2333000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4046000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2133000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2586000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2839000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2917000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2583000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2462000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2145000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2103000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2203000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E24" s="3">
         <v>19000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>176000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>217000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-376000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-539000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-178000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-18000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-186000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-459000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1028000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-862000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1332000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-485000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>184000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>622000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-230000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>390000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>362000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>868000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>773000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>713000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>566000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>472000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2100,174 +2148,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-425000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-668000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3308000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>160000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1242000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4161000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-132000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>567000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-561000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8439000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-466000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2395000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-641000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1010000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1167000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2942000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2149000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3424000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2363000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2196000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2477000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2049000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1810000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1749000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1579000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1631000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2279000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-414000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-639000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3275000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>193000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1219000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4140000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-109000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>587000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-537000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8420000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-449000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2376000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-628000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1010000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1166000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2942000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2147000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3422000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2361000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2196000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2474000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2047000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1808000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1749000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1577000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1631000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2349,16 +2406,19 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="3">
         <v>5000</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -2366,17 +2426,17 @@
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
         <v>-3000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2396,8 +2456,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -2414,11 +2474,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="3">
         <v>1271000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>24</v>
@@ -2432,8 +2492,11 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2515,8 +2578,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2598,174 +2664,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-302000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-336000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-288000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-253000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-181000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-132000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-30000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-199000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-190000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-122000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-119000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-94000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-112000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-104000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-121000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-107000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-106000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-29000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-12000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>15000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-66000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-32000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-40000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-25000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-26000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-414000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-634000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3275000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>193000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1219000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4143000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-109000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>587000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-537000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8420000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-449000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2376000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-628000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1166000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2942000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2147000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3422000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2361000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2196000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2474000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3318000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1808000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1749000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1577000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1631000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2847,179 +2922,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-414000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-634000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3275000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>193000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1219000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4143000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-109000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>587000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-537000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8420000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-449000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2376000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-628000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1166000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2942000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2147000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3422000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2361000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2196000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2474000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3318000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1808000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1749000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1577000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1631000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3049,8 +3133,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3080,408 +3165,421 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10812000</v>
+      </c>
+      <c r="E41" s="3">
         <v>14614000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13494000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10090000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7409000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8052000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9764000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8271000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7059000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7752000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10564000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19992000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15039000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9485000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9763000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9167000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6836000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7637000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8034000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8121000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9235000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8813000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8569000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8737000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8190000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8801000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>8986000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3955000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2606000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>763000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1358000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4873000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8192000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>10231000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>13071000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14861000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>17838000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16552000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12438000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>488000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>545000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1150000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>439000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>893000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>927000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1956000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1649000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>656000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1179000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1463000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1589000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1015000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1228000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12684000</v>
+      </c>
+      <c r="E43" s="3">
         <v>11305000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12144000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12549000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11555000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11378000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12332000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11767000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11234000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10051000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11722000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11478000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12725000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12471000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>14808000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>13709000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>14217000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>14364000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>13260000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>12985000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>12868000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>11397000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>11079000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>10052000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>9915000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>9260000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>9889000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>78503000</v>
+      </c>
+      <c r="E44" s="3">
         <v>78151000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>79777000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>79917000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>79819000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>78823000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>81897000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>81799000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>82668000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>81715000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>86961000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>83745000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>80020000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>76622000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>73279000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>68492000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>65369000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>62567000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>62038000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>61250000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>61303000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>33294000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>43031000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>42453000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>43247000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>43199000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>42680000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2857000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2847000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3073000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2086000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2356000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2221000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2664000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4187000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4123000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4286000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5213000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2624000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2739000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3106000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2656000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3304000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2194000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2335000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2398000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2396000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2481000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2417000</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>24</v>
@@ -3495,340 +3593,355 @@
       <c r="AC45" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>108811000</v>
+      </c>
+      <c r="E46" s="3">
         <v>109523000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>109251000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>106000000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>106012000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>108666000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>116888000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>119095000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>119945000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>121642000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>131012000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>130277000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>111011000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>102229000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>101656000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>95111000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>89509000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>87830000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>87686000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>86401000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>86543000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>85194000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>64142000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>62831000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>62367000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>62488000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>62237000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2341000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2433000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2492000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2523000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2572000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2670000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2758000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2748000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2875000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2952000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3062000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3120000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3240000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3472000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3438000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3525000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3663000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3749000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4270000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4315000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4296000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4513000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>4665000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>5032000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>5202000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>5446000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>5060000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10493000</v>
+      </c>
+      <c r="E48" s="3">
         <v>10550000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10508000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10617000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10755000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10918000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11113000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11341000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11643000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13072000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11969000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12182000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12405000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13684000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13705000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13665000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13602000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12645000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12571000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12605000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12628000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12672000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12712000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12820000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12842000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>12807000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>12713000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9315000</v>
+      </c>
+      <c r="E49" s="3">
         <v>9419000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9519000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9622000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9533000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9655000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9785000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9915000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9930000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10195000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10341000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10466000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11313000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11398000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11650000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11812000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11465000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11269000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8252000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>8044000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>8083000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>8132000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7867000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7914000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>7838000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>7864000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>7616000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3910,8 +4023,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3993,91 +4109,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5387000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5175000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5788000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6717000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6929000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6643000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6302000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5836000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5642000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4275000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4877000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6827000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5106000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2842000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2149000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2148000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1970000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1866000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1880000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1830000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1999000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1851000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1621000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1439000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1424000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1392000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4159,91 +4281,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>136347000</v>
+      </c>
+      <c r="E54" s="3">
         <v>137100000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>137558000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>135479000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>135801000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>138552000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>146846000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>148935000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>150035000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>152136000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>161261000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>162872000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>143075000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>133625000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>132598000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>126261000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>120209000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>117359000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>114659000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>113195000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>113549000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>112362000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>91007000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>90036000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>89673000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>89997000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>88950000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4273,8 +4401,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4304,506 +4433,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10274000</v>
+      </c>
+      <c r="E57" s="3">
         <v>10200000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9793000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9575000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8779000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9261000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10151000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11450000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12410000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12928000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14479000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13700000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14963000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15553000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15101000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15267000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14693000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12916000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13663000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12904000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12613000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12202000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>12718000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>12093000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>11964000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>11190000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>11968000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7926000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5190000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5431000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5406000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2591000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1296000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5377000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6534000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6021000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1693000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3634000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2922000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5173000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7340000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4354000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4357000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3381000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3190000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1389000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1611000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1981000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1335000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>988000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>720000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>367000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>384000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>75310000</v>
+      </c>
+      <c r="E59" s="3">
         <v>74662000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>74394000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>69818000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>70322000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>71435000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>70243000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>70240000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>71461000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>72659000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>74194000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>75860000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>74366000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>74419000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>72391000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>72565000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>65541000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>65484000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>64365000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>63210000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>60938000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>101620000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>40703000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>40096000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>37450000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>38560000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>35889000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>93510000</v>
+      </c>
+      <c r="E60" s="3">
         <v>90052000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>89618000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>84799000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>81692000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>81992000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>85771000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>88224000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>89892000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>87280000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>92307000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>92482000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>94502000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>97312000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>91846000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>92189000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>83615000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>81590000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>79417000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>77725000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>75532000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>74648000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>54409000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>52909000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>49781000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>50134000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>48489000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>47465000</v>
+      </c>
+      <c r="E61" s="3">
         <v>51811000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>51788000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>51794000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>55150000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>56806000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>57042000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>57025000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>57554000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>61890000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>57325000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>58457000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>33754000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19962000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>20298000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14859000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11363000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10657000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10487000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10507000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>10471000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9782000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9780000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>10055000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>10432000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>9568000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>9824000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10856000</v>
+      </c>
+      <c r="E62" s="3">
         <v>11085000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13787000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13677000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14227000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14600000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18299000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>20171000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20430000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21041000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23182000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23315000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24179000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>24651000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>24263000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>24156000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>24999000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>24702000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>25964000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>26337000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>26248000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>26219000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>25673000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>29050000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>29305000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>29418000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>28487000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4885,8 +5033,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4968,8 +5119,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5051,91 +5205,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>151855000</v>
+      </c>
+      <c r="E66" s="3">
         <v>152983000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>155257000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>150367000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>151199000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>153551000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>161286000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>165617000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>168093000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>170452000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>173082000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>174539000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>152740000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>142242000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>136714000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>131583000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>120084000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>117020000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>115948000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>114636000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>112327000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>110706000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>89921000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>92073000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>89578000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>89180000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>86861000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5165,8 +5325,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5248,8 +5409,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5331,8 +5495,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5414,8 +5581,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5497,91 +5667,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>29059000</v>
+      </c>
+      <c r="E72" s="3">
         <v>29473000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>30107000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>33382000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>33189000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>34408000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>38551000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>38660000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>38073000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>38610000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>47029000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>47478000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>49854000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>50644000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>53986000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>52819000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>58090000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>55941000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>54666000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>52303000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>52095000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>49618000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>44052000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>42222000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>42165000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>40714000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>40641000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5663,8 +5839,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5746,8 +5925,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5829,91 +6011,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-15508000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-15883000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-17699000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-14888000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-15398000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-14999000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-14440000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-16682000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-18058000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-18316000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-11821000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-11667000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-9665000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-8617000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4116000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5322000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>125000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>339000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1289000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1441000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1222000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1656000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1086000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2037000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>95000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>817000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2089000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5995,179 +6183,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-414000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-634000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3275000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>193000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1219000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4143000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-109000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>587000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-537000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8420000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-449000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2376000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-628000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1166000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2942000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2147000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3422000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2361000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2196000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2474000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3318000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1808000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1749000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1577000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1631000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6197,91 +6394,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>457000</v>
+      </c>
+      <c r="E83" s="3">
         <v>502000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>493000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>498000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>486000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>534000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>523000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>551000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>536000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>578000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>565000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>547000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>556000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>628000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>576000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>546000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>521000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>583000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>523000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>507000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>501000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>582000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>522000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>494000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>471000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>546000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>474000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6363,8 +6564,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6446,8 +6650,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6529,8 +6736,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6612,8 +6822,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6695,91 +6908,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-318000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3457000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3190000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>81000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3216000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>716000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-262000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-483000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3387000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4009000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4819000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5280000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4302000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2220000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2424000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-590000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2788000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2947000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4559000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4680000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3136000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2903000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3396000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4949000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2098000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2832000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6809,91 +7028,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-468000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-326000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-284000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-263000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-349000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-222000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-245000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-222000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-291000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-265000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-262000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-348000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-428000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-447000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-465000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-421000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-501000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-495000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-457000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-376000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-394000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-435000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-399000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-439000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-932000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-599000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-595000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6975,8 +7198,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7058,91 +7284,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1823000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2151000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>290000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3266000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2965000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1935000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2966000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1659000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2764000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1543000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4137000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12307000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-379000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>517000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1194000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-86000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-767000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2424000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-902000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1414000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>119000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-457000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-218000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1123000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-260000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7172,8 +7404,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7211,52 +7444,55 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1158000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1157000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1156000</v>
       </c>
       <c r="R96" s="3">
         <v>-1156000</v>
       </c>
       <c r="S96" s="3">
+        <v>-1156000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1161000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-970000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-979000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-991000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1006000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-842000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-855000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-852000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-868000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-672000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-676000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7338,8 +7574,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7421,8 +7660,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7504,253 +7746,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1680000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-250000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-18000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-602000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-396000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4362000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1171000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-48000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2681000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-468000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>22462000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>10280000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1403000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4240000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2919000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2823000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-856000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3689000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4332000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2845000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2241000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3335000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3311000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2463000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1574000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-2204000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E101" s="3">
         <v>61000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-63000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-68000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-20000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-18000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>59000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>37000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>36000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-47000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>22000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-25000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-16000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-44000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>8000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>7000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>21000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>32000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>20000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-27000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3811000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1117000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3399000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2677000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-650000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1716000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1513000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1161000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-689000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2812000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9387000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4911000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5552000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-278000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>597000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2240000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-801000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-349000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-33000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1110000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>418000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>212000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-136000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>547000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-605000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-185000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>381000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>BA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,369 +665,381 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>19751000</v>
+      </c>
+      <c r="E8" s="3">
         <v>17921000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19980000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15956000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16681000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13991000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14793000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15278000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16998000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15217000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15802000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14139000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11807000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16908000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20560000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19980000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>21361000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>22917000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>28341000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>25146000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>24258000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>23382000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>24770000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>24223000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>23051000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>21961000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>23286000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>23898000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17812000</v>
+      </c>
+      <c r="E9" s="3">
         <v>15998000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18124000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16778000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14559000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13645000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17307000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13566000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14588000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13808000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>20992000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13105000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12978000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16768000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>18708000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>16930000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>17810000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>18645000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>22090000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>21040000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>19536000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>18824000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>19881000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>19956000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>18702000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>18073000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>19464000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>19904000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1939000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1923000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1856000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-822000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2122000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>346000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-2514000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1712000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2410000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1409000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-5190000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1034000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-1171000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>140000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1852000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3050000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3551000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4272000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6251000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4106000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4722000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4558000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4889000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4267000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4349000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3888000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3822000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>3994000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1058,94 +1070,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>797000</v>
+      </c>
+      <c r="E12" s="3">
         <v>741000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>794000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>727000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>698000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>633000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>678000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>575000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>497000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>499000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>605000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>574000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>625000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>672000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>749000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>778000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>826000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>866000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>852000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>826000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>827000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>764000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>762000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>768000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>813000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>836000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>726000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>857000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1230,8 +1246,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1262,11 +1281,11 @@
       <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="3">
         <v>498000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>24</v>
@@ -1274,17 +1293,17 @@
       <c r="P14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="3">
         <v>2649000</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5610000</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>24</v>
@@ -1295,8 +1314,8 @@
       <c r="W14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1316,8 +1335,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1402,8 +1424,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1431,180 +1456,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>19850000</v>
+      </c>
+      <c r="E17" s="3">
         <v>18070000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20333000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18755000</v>
       </c>
-      <c r="G17" s="3">
-        <v>15907000</v>
-      </c>
       <c r="H17" s="3">
+        <v>15901000</v>
+      </c>
+      <c r="I17" s="3">
         <v>15153000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18964000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14949000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15975000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15300000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23851000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14540000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14771000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18261000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22764000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18721000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24741000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>20567000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>24166000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>22919000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>21548000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>20507000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>21792000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>21593000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>20521000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>19755000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>21103000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>21616000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-149000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-353000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2799000</v>
       </c>
-      <c r="G18" s="3">
-        <v>774000</v>
-      </c>
       <c r="H18" s="3">
+        <v>780000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1162000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4171000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>329000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1023000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-83000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8049000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-401000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2964000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1353000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2204000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1259000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3380000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2350000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4175000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2227000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2710000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2875000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2978000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2630000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2530000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2206000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2183000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>2282000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1635,438 +1667,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E20" s="3">
         <v>302000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>336000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>288000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>253000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>181000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>132000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>30000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>199000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>190000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>122000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>119000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>94000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>112000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>104000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>121000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>107000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>106000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>29000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>12000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-15000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>66000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>32000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>40000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>25000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>26000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>677000</v>
+      </c>
+      <c r="E21" s="3">
         <v>610000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>485000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2018000</v>
       </c>
-      <c r="G21" s="3">
-        <v>1525000</v>
-      </c>
       <c r="H21" s="3">
+        <v>1531000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-495000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3505000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>882000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1773000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>643000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7349000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>283000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2323000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-685000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1472000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1956000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2727000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2977000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4787000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2762000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3202000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3442000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3587000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3184000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3043000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2700000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2728000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>2758000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>621000</v>
+      </c>
+      <c r="E22" s="3">
         <v>649000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>632000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>621000</v>
       </c>
-      <c r="G22" s="3">
-        <v>650000</v>
-      </c>
       <c r="H22" s="3">
+        <v>656000</v>
+      </c>
+      <c r="I22" s="3">
         <v>637000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>661000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>669000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>673000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>679000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>698000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>643000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>553000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>262000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>242000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>203000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>154000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>123000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>158000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>106000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>109000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>102000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>93000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>87000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>93000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>87000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>79000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-400000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-496000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-649000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3132000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>377000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1618000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4700000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-310000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>549000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-572000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8625000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-925000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3423000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1503000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2342000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1177000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3427000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2333000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4046000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2133000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2586000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2839000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2917000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2583000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2462000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2145000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2103000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2203000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-251000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-71000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>19000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>176000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>217000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-376000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-539000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-178000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-18000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-11000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-186000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-459000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1028000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-862000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1332000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-485000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>184000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>622000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-230000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>390000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>362000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>868000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>773000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>713000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>566000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>472000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2151,180 +2199,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-425000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-668000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3308000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>160000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1242000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4161000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-132000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>567000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-561000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8439000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-466000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2395000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-641000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1010000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1167000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2942000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2149000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3424000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2363000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2196000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2477000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2049000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1810000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1749000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1579000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1631000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2279000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-414000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-639000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3275000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>193000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1219000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4140000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-109000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>587000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-537000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8420000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-449000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2376000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-628000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1010000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1166000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2942000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2147000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3422000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2361000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2196000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2474000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2047000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1808000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1749000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1577000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1631000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2409,19 +2466,22 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3">
         <v>5000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -2429,17 +2489,17 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3">
         <v>-3000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2459,8 +2519,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2477,11 +2537,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z29" s="3">
         <v>1271000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2495,8 +2555,11 @@
       <c r="AD29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2581,8 +2644,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2667,180 +2733,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-320000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-302000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-336000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-288000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-253000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-181000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-132000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-30000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-199000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-190000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-122000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-119000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-94000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-112000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-104000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-121000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-107000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-106000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-29000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-12000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>15000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-66000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-32000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-40000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-25000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-26000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-414000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-634000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3275000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>193000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1219000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4143000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-109000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>587000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-537000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8420000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-449000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2376000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-628000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1166000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2942000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2147000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3422000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2361000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2196000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2474000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3318000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1808000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1749000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1577000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1631000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2925,185 +3000,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-414000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-634000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3275000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>193000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1219000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4143000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-109000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>587000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-537000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8420000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-449000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2376000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-628000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1166000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2942000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2147000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3422000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2361000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2196000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2474000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3318000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1808000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1749000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1577000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1631000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3134,8 +3218,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3166,423 +3251,436 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7254000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10812000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14614000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13494000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10090000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7409000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8052000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9764000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8271000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7059000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7752000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10564000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19992000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15039000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9485000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9763000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9167000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6836000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7637000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8034000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8121000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9235000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8813000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8569000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8737000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8190000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>8801000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>8986000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6508000</v>
+      </c>
+      <c r="E42" s="3">
         <v>3955000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2606000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>763000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1358000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>4873000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>8192000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>10231000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13071000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14861000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>17838000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16552000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12438000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>488000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>545000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1150000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>439000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>893000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>927000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1956000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1649000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>656000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1179000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1463000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1589000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1015000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1228000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12387000</v>
+      </c>
+      <c r="E43" s="3">
         <v>12684000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11305000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12144000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12549000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11555000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11378000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12332000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11767000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11234000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10051000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11722000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11478000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12725000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12471000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>14808000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>13709000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>14217000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>14364000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>13260000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>12985000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>12868000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>11397000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>11079000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>10052000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>9915000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>9260000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>9889000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>78322000</v>
+      </c>
+      <c r="E44" s="3">
         <v>78503000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>78151000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>79777000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>79917000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>79819000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>78823000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>81897000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>81799000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>82668000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>81715000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>86961000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>83745000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>80020000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>76622000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>73279000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>68492000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>65369000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>62567000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>62038000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>61250000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>61303000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>33294000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>43031000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>42453000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>43247000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>43199000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>42680000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2941000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2857000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2847000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3073000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2086000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2356000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2221000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2664000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4187000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4123000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4286000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5213000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2624000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2739000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3106000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2656000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3304000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2194000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2335000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2398000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2396000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2481000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2417000</v>
-      </c>
-      <c r="Z45" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>24</v>
@@ -3596,352 +3694,367 @@
       <c r="AD45" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>107412000</v>
+      </c>
+      <c r="E46" s="3">
         <v>108811000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>109523000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>109251000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>106000000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>106012000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>108666000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>116888000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>119095000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>119945000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>121642000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>131012000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>130277000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>111011000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>102229000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>101656000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>95111000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>89509000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>87830000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>87686000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>86401000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>86543000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>85194000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>64142000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>62831000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>62367000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>62488000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>62237000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2130000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2341000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2433000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2492000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2523000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2572000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2670000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2758000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2748000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2875000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2952000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3062000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3120000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3240000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3472000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3438000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3525000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3663000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3749000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4270000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4315000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4296000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>4513000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>4665000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>5032000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>5202000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>5446000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>5060000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10455000</v>
+      </c>
+      <c r="E48" s="3">
         <v>10493000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10550000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10508000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10617000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10755000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10918000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11113000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11341000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11643000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13072000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11969000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12182000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12405000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13684000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13705000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13665000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13602000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12645000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12571000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12605000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12628000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12672000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12712000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12820000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>12842000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>12807000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>12713000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9315000</v>
+        <v>10255000</v>
       </c>
       <c r="E49" s="3">
-        <v>9419000</v>
+        <v>10317000</v>
       </c>
       <c r="F49" s="3">
-        <v>9519000</v>
+        <v>10368000</v>
       </c>
       <c r="G49" s="3">
-        <v>9622000</v>
+        <v>10416000</v>
       </c>
       <c r="H49" s="3">
-        <v>9533000</v>
+        <v>10486000</v>
       </c>
       <c r="I49" s="3">
-        <v>9655000</v>
+        <v>10557000</v>
       </c>
       <c r="J49" s="3">
+        <v>10630000</v>
+      </c>
+      <c r="K49" s="3">
         <v>9785000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9915000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9930000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10195000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10341000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10466000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11313000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11398000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11650000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11812000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11465000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>11269000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>8252000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>8044000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>8083000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>8132000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7867000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>7914000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>7838000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>7864000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>7616000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4026,8 +4139,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4112,94 +4228,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5387000</v>
+        <v>4522000</v>
       </c>
       <c r="E52" s="3">
-        <v>5175000</v>
+        <v>4385000</v>
       </c>
       <c r="F52" s="3">
-        <v>5788000</v>
+        <v>4226000</v>
       </c>
       <c r="G52" s="3">
-        <v>6717000</v>
+        <v>4891000</v>
       </c>
       <c r="H52" s="3">
-        <v>6929000</v>
+        <v>5853000</v>
       </c>
       <c r="I52" s="3">
-        <v>6643000</v>
+        <v>5905000</v>
       </c>
       <c r="J52" s="3">
+        <v>5668000</v>
+      </c>
+      <c r="K52" s="3">
         <v>6302000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5836000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5642000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4275000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4877000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6827000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5106000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2842000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2149000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2148000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1970000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1866000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1880000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1830000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1999000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1851000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1621000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1439000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1424000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1392000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4284,94 +4406,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>134774000</v>
+      </c>
+      <c r="E54" s="3">
         <v>136347000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>137100000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>137558000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>135479000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>135801000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>138552000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>146846000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>148935000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>150035000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>152136000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>161261000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>162872000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>143075000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>133625000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>132598000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>126261000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>120209000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>117359000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>114659000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>113195000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>113549000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>112362000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>91007000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>90036000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>89673000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>89997000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>88950000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4402,8 +4530,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4434,524 +4563,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10936000</v>
+      </c>
+      <c r="E57" s="3">
         <v>10274000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10200000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9793000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9575000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8779000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9261000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10151000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11450000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12410000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12928000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14479000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13700000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>14963000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15553000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15101000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15267000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>14693000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12916000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13663000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12904000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12613000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>12202000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>12718000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>12093000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>11964000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>11190000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>11968000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4609000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7926000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5190000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5431000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5406000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2591000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1296000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5377000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6534000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6021000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1693000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3634000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2922000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5173000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7340000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4354000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4357000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3381000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3190000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1389000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1611000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1981000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1335000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>988000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>720000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>367000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>384000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>76531000</v>
+      </c>
+      <c r="E59" s="3">
         <v>75310000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>74662000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>74394000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>69818000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>70322000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>71435000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>70243000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>70240000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>71461000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>72659000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>74194000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>75860000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>74366000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>74419000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>72391000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>72565000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>65541000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>65484000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>64365000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>63210000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>60938000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>101620000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>40703000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>40096000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>37450000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>38560000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>35889000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>92076000</v>
+      </c>
+      <c r="E60" s="3">
         <v>93510000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>90052000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>89618000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>84799000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>81692000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>81992000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>85771000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>88224000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>89892000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>87280000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>92307000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>92482000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>94502000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>97312000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>91846000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>92189000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>83615000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>81590000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>79417000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>77725000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>75532000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>74648000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>54409000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>52909000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>49781000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>50134000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>48489000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>47659000</v>
+      </c>
+      <c r="E61" s="3">
         <v>47465000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>51811000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>51788000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>51794000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>55150000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>56806000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>57042000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>57025000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>57554000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>61890000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>57325000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>58457000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>33754000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19962000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>20298000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14859000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11363000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10657000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10487000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>10507000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>10471000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9782000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9780000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>10055000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>10432000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>9568000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>9824000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10532000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10856000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11085000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13787000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13677000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14227000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14600000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18299000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20171000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20430000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21041000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23182000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23315000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>24179000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>24651000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>24263000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>24156000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>24999000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>24702000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>25964000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>26337000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>26248000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>26219000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>25673000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>29050000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>29305000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>29418000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>28487000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5036,8 +5184,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5122,8 +5273,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5208,94 +5362,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>150291000</v>
+      </c>
+      <c r="E66" s="3">
         <v>151855000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>152983000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>155257000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>150367000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>151199000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>153551000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>161286000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>165617000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>168093000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>170452000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>173082000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>174539000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>152740000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>142242000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>136714000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>131583000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>120084000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>117020000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>115948000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>114636000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>112327000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>110706000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>89921000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>92073000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>89578000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>89180000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>86861000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5326,8 +5486,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5412,8 +5573,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5498,8 +5662,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5584,8 +5751,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5670,94 +5840,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>28910000</v>
+      </c>
+      <c r="E72" s="3">
         <v>29059000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>29473000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>30107000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>33382000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>33189000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>34408000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>38551000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>38660000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>38073000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>38610000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>47029000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>47478000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>49854000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>50644000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>53986000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>52819000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>58090000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>55941000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>54666000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>52303000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>52095000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>49618000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>44052000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>42222000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>42165000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>40714000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>40641000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5842,8 +6018,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5928,8 +6107,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6014,94 +6196,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-15517000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-15508000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-15883000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-17699000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-14888000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-15398000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-14999000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-14440000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-16682000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-18058000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-18316000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-11821000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-11667000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-9665000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-8617000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4116000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5322000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>125000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>339000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1289000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1441000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1222000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1656000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1086000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-2037000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>95000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>817000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2089000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6186,185 +6374,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-414000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-634000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3275000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>193000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1219000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4143000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-109000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>587000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-537000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8420000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-449000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2376000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-628000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1166000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2942000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2147000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3422000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2361000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2196000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2474000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3318000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1808000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1749000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1577000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1631000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6395,94 +6592,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E83" s="3">
         <v>457000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>502000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>493000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>498000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>486000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>534000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>523000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>551000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>536000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>578000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>565000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>547000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>556000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>628000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>576000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>546000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>521000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>583000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>523000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>507000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>501000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>582000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>522000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>494000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>471000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>546000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>474000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6567,8 +6768,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6653,8 +6857,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6739,8 +6946,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6825,8 +7035,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6911,94 +7124,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2875000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-318000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3457000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3190000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>81000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3216000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>716000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-262000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-483000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3387000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4009000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4819000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5280000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4302000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2220000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2424000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-590000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2788000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2947000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4559000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4680000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3136000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2903000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3396000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4949000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2098000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2832000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7029,94 +7248,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-296000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-468000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-326000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-284000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-263000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-349000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-222000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-245000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-222000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-291000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-265000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-262000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-348000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-428000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-447000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-465000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-421000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-501000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-495000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-457000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-376000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-394000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-435000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-399000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-439000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-932000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-599000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-595000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7201,8 +7424,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7287,94 +7513,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3015000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1823000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2151000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>290000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3266000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2965000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1935000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2966000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1659000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2764000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1543000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4137000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12307000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-379000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>517000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1194000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-86000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-767000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2424000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-902000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1414000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>119000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-457000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-218000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1123000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-260000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7405,8 +7637,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7447,52 +7680,55 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1158000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1157000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-1156000</v>
       </c>
       <c r="S96" s="3">
         <v>-1156000</v>
       </c>
       <c r="T96" s="3">
+        <v>-1156000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1161000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-970000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-979000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-991000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1006000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-842000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-855000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-852000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-868000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-672000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-676000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7577,8 +7813,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7663,8 +7902,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7749,262 +7991,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3413000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1680000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-250000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-18000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-602000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-396000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4362000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1171000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-48000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2681000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-468000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>22462000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>10280000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1403000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4240000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2919000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2823000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-856000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3689000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4332000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2845000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2241000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3335000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-3311000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2463000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1574000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-2204000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>10000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>61000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-63000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-68000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-20000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-18000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>59000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>37000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>36000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-47000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>22000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-25000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-16000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-44000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>8000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>7000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>21000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>32000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>20000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-27000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3561000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3811000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1117000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3399000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2677000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-650000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1716000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1513000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1161000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-689000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2812000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9387000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4911000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5552000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-278000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>597000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2240000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-801000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-349000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-33000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1110000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>418000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>212000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-136000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>547000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-605000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-185000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>381000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>BA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,381 +665,393 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18104000</v>
+      </c>
+      <c r="E8" s="3">
         <v>19751000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17921000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19980000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15956000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16681000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13991000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14793000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15278000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16998000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15217000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15802000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14139000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11807000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16908000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20560000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>19980000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>21361000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>22917000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>28341000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>25146000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>24258000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>23382000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>24770000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>24223000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>23051000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>21961000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>23286000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>23898000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16939000</v>
+      </c>
+      <c r="E9" s="3">
         <v>17812000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15998000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18124000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16778000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14559000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13645000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>17307000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13566000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14588000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13808000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>20992000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13105000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12978000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16768000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>18708000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>16930000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>17810000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>18645000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>22090000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>21040000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>19536000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>18824000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>19881000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>19956000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>18702000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>18073000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>19464000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>19904000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1165000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1939000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1923000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1856000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-822000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2122000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>346000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-2514000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1712000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2410000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1409000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-5190000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1034000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-1171000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>140000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1852000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3050000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3551000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4272000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6251000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4106000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4722000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4558000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4889000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4267000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>4349000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3888000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>3822000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>3994000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1071,97 +1083,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>958000</v>
+      </c>
+      <c r="E12" s="3">
         <v>797000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>741000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>794000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>727000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>698000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>633000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>678000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>575000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>497000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>499000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>605000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>574000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>625000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>672000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>749000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>778000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>826000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>866000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>852000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>826000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>827000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>764000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>762000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>768000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>813000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>836000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>726000</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>857000</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1249,8 +1265,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1284,11 +1303,11 @@
       <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="3">
         <v>498000</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>24</v>
@@ -1296,17 +1315,17 @@
       <c r="Q14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="3">
         <v>2649000</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5610000</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>24</v>
@@ -1317,8 +1336,8 @@
       <c r="X14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1338,8 +1357,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1427,8 +1449,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1457,186 +1482,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>18912000</v>
+      </c>
+      <c r="E17" s="3">
         <v>19850000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18070000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20333000</v>
       </c>
-      <c r="G17" s="3">
-        <v>18755000</v>
-      </c>
       <c r="H17" s="3">
+        <v>18748000</v>
+      </c>
+      <c r="I17" s="3">
         <v>15901000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15153000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18964000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14949000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15975000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15300000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23851000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14540000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14771000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18261000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22764000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18721000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>24741000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>20567000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>24166000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>22919000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>21548000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>20507000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>21792000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>21593000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>20521000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>19755000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>21103000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>21616000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-808000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-99000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-149000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-353000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-2799000</v>
-      </c>
       <c r="H18" s="3">
+        <v>-2792000</v>
+      </c>
+      <c r="I18" s="3">
         <v>780000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1162000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4171000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>329000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1023000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-83000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8049000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-401000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2964000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1353000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2204000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1259000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3380000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2350000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4175000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2227000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2710000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2875000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2978000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2630000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2530000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2206000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>2183000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>2282000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1668,453 +1700,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E20" s="3">
         <v>320000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>302000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>336000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>288000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>253000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>181000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>132000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>30000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>199000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>190000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>122000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>119000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>94000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>112000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>104000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>121000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>107000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>106000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>29000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>12000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>66000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>32000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>40000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>25000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>26000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E21" s="3">
         <v>677000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>610000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>485000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-2018000</v>
-      </c>
       <c r="H21" s="3">
+        <v>-2011000</v>
+      </c>
+      <c r="I21" s="3">
         <v>1531000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-495000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3505000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>882000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1773000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>643000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7349000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>283000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2323000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-685000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1472000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1956000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2727000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2977000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4787000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2762000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3202000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3442000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3587000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3184000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3043000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2700000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>2728000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>2758000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>589000</v>
+      </c>
+      <c r="E22" s="3">
         <v>621000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>649000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>632000</v>
       </c>
-      <c r="G22" s="3">
-        <v>621000</v>
-      </c>
       <c r="H22" s="3">
+        <v>628000</v>
+      </c>
+      <c r="I22" s="3">
         <v>656000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>637000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>661000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>669000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>673000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>679000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>698000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>643000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>553000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>262000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>242000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>203000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>154000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>123000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>158000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>106000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>109000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>102000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>93000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>87000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>93000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>87000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>79000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-496000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-649000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3132000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>377000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1618000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4700000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-310000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>549000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-572000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8625000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-925000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3423000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1503000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2342000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1177000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3427000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2333000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4046000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2133000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2586000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2839000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2917000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2583000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2462000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2145000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2103000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>2203000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-251000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-71000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>19000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>176000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>217000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-376000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-539000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-178000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-18000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-11000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-186000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-459000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1028000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-862000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1332000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-485000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>184000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>622000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-230000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>390000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>362000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>868000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>773000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>713000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>566000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>472000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-76000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2202,186 +2250,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-1638000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-149000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-425000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-668000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3308000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>160000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1242000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4161000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-132000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>567000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-561000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8439000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-466000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2395000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-641000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1010000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1167000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2942000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2149000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3424000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2363000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2196000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2477000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2049000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1810000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1749000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1579000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1631000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>2279000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-1636000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-149000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-414000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-639000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3275000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>193000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1219000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4140000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-109000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>587000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-537000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8420000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-449000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2376000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-628000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1010000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1166000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2942000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2147000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3422000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2361000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2196000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2474000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2047000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1808000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1749000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1577000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1631000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2469,8 +2526,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2480,11 +2540,11 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3">
         <v>5000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -2492,17 +2552,17 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3">
         <v>-3000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2522,8 +2582,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2540,11 +2600,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" s="3">
         <v>1271000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>24</v>
@@ -2558,8 +2618,11 @@
       <c r="AE29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2647,8 +2710,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2736,186 +2802,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-297000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-320000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-302000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-336000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-288000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-253000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-181000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-132000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-30000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-199000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-190000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-122000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-119000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-94000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-112000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-104000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-121000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-107000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-106000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-29000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-12000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>15000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-66000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-32000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-40000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-25000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-26000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>1000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1636000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-149000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-414000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-634000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3275000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>193000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1219000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4143000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-109000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>587000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-537000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8420000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-449000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2376000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-628000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1010000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1166000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2942000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2147000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3422000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2361000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2196000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2474000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3318000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1808000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1749000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1577000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1631000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3003,191 +3078,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1636000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-149000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-414000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-634000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3275000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>193000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1219000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4143000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-109000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>587000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-537000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8420000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-449000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2376000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-628000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1010000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1166000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2942000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2147000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3422000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2361000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2196000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2474000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3318000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1808000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1749000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1577000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1631000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3219,8 +3303,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3252,438 +3337,451 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6811000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7254000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10812000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14614000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13494000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10090000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7409000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8052000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9764000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8271000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7059000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7752000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10564000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19992000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15039000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9485000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9763000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9167000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6836000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7637000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8034000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8121000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9235000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8813000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8569000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8737000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>8190000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>8801000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>8986000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6561000</v>
+      </c>
+      <c r="E42" s="3">
         <v>6508000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3955000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2606000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>763000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1358000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>4873000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>8192000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10231000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13071000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14861000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>17838000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16552000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12438000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>488000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>545000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1150000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>439000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>893000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>927000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1956000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1649000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>656000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1179000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1463000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1589000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1015000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>1228000</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12304000</v>
+      </c>
+      <c r="E43" s="3">
         <v>12387000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12684000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11305000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12144000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12549000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11555000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11378000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12332000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11767000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11234000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10051000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11722000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11478000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12725000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12471000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>14808000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>13709000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>14217000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>14364000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>13260000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>12985000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>12868000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>11397000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>11079000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>10052000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>9915000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>9260000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>9889000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>78972000</v>
+      </c>
+      <c r="E44" s="3">
         <v>78322000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>78503000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>78151000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>79777000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>79917000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>79819000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>78823000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>81897000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>81799000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>82668000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>81715000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>86961000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>83745000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>80020000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>76622000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>73279000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>68492000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>65369000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>62567000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>62038000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>61250000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>61303000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>33294000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>43031000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>42453000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>43247000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>43199000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>42680000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2287000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2941000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2857000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2847000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3073000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2086000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2356000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2221000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2664000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4187000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4123000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4286000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5213000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2624000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2739000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3106000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2656000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3304000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2194000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2335000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2398000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2396000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2481000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2417000</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AB45" s="3" t="s">
         <v>24</v>
@@ -3697,364 +3795,379 @@
       <c r="AE45" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>106935000</v>
+      </c>
+      <c r="E46" s="3">
         <v>107412000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>108811000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>109523000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>109251000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>106000000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>106012000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>108666000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>116888000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>119095000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>119945000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>121642000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>131012000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>130277000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>111011000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>102229000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>101656000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>95111000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>89509000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>87830000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>87686000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>86401000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>86543000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>85194000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>64142000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>62831000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>62367000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>62488000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>62237000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2024000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2130000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2341000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2433000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2492000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2523000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2572000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2670000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2758000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2748000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2875000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2952000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3062000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3120000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3240000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3472000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3438000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3525000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3663000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3749000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4270000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4315000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>4296000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>4513000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>4665000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>5032000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>5202000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>5446000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>5060000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10484000</v>
+      </c>
+      <c r="E48" s="3">
         <v>10455000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10493000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10550000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10508000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10617000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10755000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10918000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11113000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11341000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11643000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13072000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11969000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12182000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12405000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13684000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13705000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13665000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13602000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12645000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12571000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12605000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12628000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12672000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12712000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>12820000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>12842000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>12807000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>12713000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10212000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10255000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10317000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10368000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10416000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10486000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10557000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10630000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9785000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9915000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9930000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10195000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10341000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10466000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11313000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11398000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11650000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11812000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>11465000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>11269000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>8252000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>8044000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>8083000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>8132000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>7867000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>7914000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>7838000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>7864000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>7616000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4142,8 +4255,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4231,97 +4347,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4626000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4522000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4385000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4226000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4891000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5853000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5905000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5668000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6302000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5836000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5642000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4275000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4877000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6827000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5106000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2842000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2149000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2148000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1970000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1866000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1880000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1830000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1999000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1851000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1621000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1439000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1424000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1392000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>1324000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4409,97 +4531,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>134281000</v>
+      </c>
+      <c r="E54" s="3">
         <v>134774000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>136347000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>137100000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>137558000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>135479000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>135801000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>138552000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>146846000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>148935000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>150035000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>152136000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>161261000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>162872000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>143075000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>133625000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>132598000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>126261000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>120209000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>117359000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>114659000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>113195000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>113549000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>112362000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>91007000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>90036000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>89673000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>89997000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>88950000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4531,8 +4659,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4564,542 +4693,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11143000</v>
+      </c>
+      <c r="E57" s="3">
         <v>10936000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10274000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10200000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9793000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9575000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8779000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9261000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10151000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11450000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12410000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12928000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14479000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13700000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14963000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15553000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15101000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15267000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>14693000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12916000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>13663000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12904000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>12613000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>12202000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>12718000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>12093000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>11964000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>11190000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>11968000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4891000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4609000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7926000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5190000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5431000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5406000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2591000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1296000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5377000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6534000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6021000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1693000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3634000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2922000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5173000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7340000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4354000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4357000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3381000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3190000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1389000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1611000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1981000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1335000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>988000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>720000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>367000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>384000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>632000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>77028000</v>
+      </c>
+      <c r="E59" s="3">
         <v>76531000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>75310000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>74662000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>74394000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>69818000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>70322000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>71435000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>70243000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>70240000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>71461000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>72659000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>74194000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>75860000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>74366000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>74419000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>72391000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>72565000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>65541000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>65484000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>64365000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>63210000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>60938000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>101620000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>40703000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>40096000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>37450000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>38560000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>35889000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>93062000</v>
+      </c>
+      <c r="E60" s="3">
         <v>92076000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>93510000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>90052000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>89618000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>84799000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>81692000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>81992000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>85771000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>88224000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>89892000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>87280000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>92307000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>92482000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>94502000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>97312000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>91846000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>92189000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>83615000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>81590000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>79417000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>77725000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>75532000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>74648000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>54409000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>52909000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>49781000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>50134000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>48489000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>47381000</v>
+      </c>
+      <c r="E61" s="3">
         <v>47659000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>47465000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>51811000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>51788000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>51794000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>55150000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>56806000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>57042000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>57025000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>57554000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>61890000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>57325000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>58457000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>33754000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19962000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>20298000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14859000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11363000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10657000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>10487000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>10507000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>10471000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9782000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>9780000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>10055000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>10432000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>9568000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>9824000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10555000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10532000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10856000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11085000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13787000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13677000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14227000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14600000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18299000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20171000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20430000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21041000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23182000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23315000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>24179000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>24651000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>24263000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>24156000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>24999000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>24702000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>25964000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>26337000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>26248000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>26219000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>25673000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>29050000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>29305000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>29418000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>28487000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5187,8 +5335,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5276,8 +5427,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5365,97 +5519,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>151010000</v>
+      </c>
+      <c r="E66" s="3">
         <v>150291000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>151855000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>152983000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>155257000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>150367000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>151199000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>153551000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>161286000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>165617000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>168093000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>170452000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>173082000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>174539000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>152740000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>142242000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>136714000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>131583000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>120084000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>117020000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>115948000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>114636000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>112327000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>110706000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>89921000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>92073000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>89578000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>89180000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>86861000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5487,8 +5647,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5576,8 +5737,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5665,8 +5829,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5754,8 +5921,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5843,97 +6013,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>27274000</v>
+      </c>
+      <c r="E72" s="3">
         <v>28910000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>29059000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>29473000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>30107000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>33382000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>33189000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>34408000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>38551000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>38660000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>38073000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>38610000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>47029000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>47478000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>49854000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>50644000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>53986000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>52819000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>58090000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>55941000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>54666000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>52303000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>52095000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>49618000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>44052000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>42222000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>42165000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>40714000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>40641000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6021,8 +6197,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6110,8 +6289,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6199,97 +6381,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-16729000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-15517000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-15508000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-15883000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-17699000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-14888000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-15398000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-14999000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-14440000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-16682000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-18058000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-18316000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-11821000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-11667000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-9665000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-8617000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4116000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5322000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>125000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>339000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1289000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1441000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1222000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1656000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1086000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-2037000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>95000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>817000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>2089000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6377,191 +6565,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1636000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-149000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-414000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-634000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3275000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>193000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1219000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4143000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-109000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>587000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-537000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8420000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-449000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2376000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-628000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1010000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1166000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2942000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2147000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3422000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2361000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2196000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2474000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3318000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1808000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1749000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1577000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1631000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>2276000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6593,97 +6790,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>467000</v>
+      </c>
+      <c r="E83" s="3">
         <v>456000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>457000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>502000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>493000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>498000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>486000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>534000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>523000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>551000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>536000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>578000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>565000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>547000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>556000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>628000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>576000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>546000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>521000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>583000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>523000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>507000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>501000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>582000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>522000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>494000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>471000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>546000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>474000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6771,8 +6972,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6860,8 +7064,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6949,8 +7156,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7038,8 +7248,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7127,97 +7340,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2875000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-318000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3457000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3190000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>81000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3216000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>716000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-262000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-483000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3387000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4009000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4819000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5280000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4302000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2220000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2424000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-590000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2788000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2947000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4559000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>4680000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3136000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2903000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3396000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>4949000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2098000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>2832000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>3202000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7249,97 +7468,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-332000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-296000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-468000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-326000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-284000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-263000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-349000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-222000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-245000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-222000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-291000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-265000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-262000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-348000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-428000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-447000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-465000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-421000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-501000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-495000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-457000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-376000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-394000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-435000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-399000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-439000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-932000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-599000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-595000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7427,8 +7650,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7516,97 +7742,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-403000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3015000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1823000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2151000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>290000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3266000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2965000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1935000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2966000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1659000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2764000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1543000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4137000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12307000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-379000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>517000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1194000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-86000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-767000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2424000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-902000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1414000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>119000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-457000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-218000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1123000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-260000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1416000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-614000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7638,8 +7870,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7683,52 +7916,55 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1158000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1157000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-1156000</v>
       </c>
       <c r="T96" s="3">
         <v>-1156000</v>
       </c>
       <c r="U96" s="3">
+        <v>-1156000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1161000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-970000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-979000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-991000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1006000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-842000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-855000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-852000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-868000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-672000</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-676000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7816,8 +8052,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7905,8 +8144,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7994,271 +8236,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3413000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1680000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-250000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-18000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-602000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-396000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4362000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1171000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-48000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2681000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-468000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>22462000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>10280000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1403000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4240000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2919000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2823000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-856000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3689000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4332000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2845000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2241000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-3335000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-3311000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-2463000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1574000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-2204000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>10000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>61000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-63000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-68000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-20000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-18000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>59000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>37000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>36000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-47000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>22000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-25000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-16000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-44000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>8000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>7000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>21000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>32000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>20000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-27000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-443000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3561000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3811000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1117000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3399000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2677000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-650000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1716000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1513000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1161000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-689000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2812000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9387000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4911000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5552000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-278000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>597000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2240000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-801000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-349000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-33000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1110000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>418000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>212000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-136000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>547000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-605000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-185000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>381000</v>
       </c>
     </row>
